--- a/tools/manipulation.xlsx
+++ b/tools/manipulation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\dss\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBC488-6648-454D-9753-29B430DBF0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E7A23-1AF8-4A7F-BA52-67509B45F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="supplier_summary" sheetId="3" r:id="rId1"/>
-    <sheet name="conditions" sheetId="5" r:id="rId2"/>
+    <sheet name="conditions" sheetId="5" r:id="rId1"/>
+    <sheet name="supplier_summary" sheetId="3" r:id="rId2"/>
     <sheet name="topsis" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -186,6 +186,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,92 +398,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,11 +491,29 @@
   </cellStyles>
   <dxfs count="98">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -504,12 +525,15 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -519,8 +543,9 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -536,8 +561,9 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -553,11 +579,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -570,21 +595,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -601,11 +611,13 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -633,8 +645,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -664,8 +677,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -697,8 +711,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -730,8 +745,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -763,8 +779,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -796,8 +813,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -829,8 +847,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -862,8 +881,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -895,8 +915,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -928,8 +949,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -961,8 +983,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -994,8 +1017,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1027,8 +1051,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1060,8 +1085,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1093,8 +1119,9 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color auto="1"/>
@@ -1108,119 +1135,139 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1235,468 +1282,502 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1708,6 +1789,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1715,6 +1805,20 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1731,29 +1835,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1977,7 +2058,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A39:O41" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="96" tableBorderDxfId="97" totalsRowBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A39:O41" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
   <autoFilter ref="A39:O41" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="Column1" dataDxfId="23"/>
@@ -2029,8 +2110,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A44:E49" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="93" tableBorderDxfId="94" totalsRowBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A44:E49" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
   <autoFilter ref="A44:E49" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:E49">
+    <sortCondition descending="1" ref="D44:D49"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{38B91389-FD35-4773-A58E-17009CB1A9C0}" name="supplier_name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2AF81854-9495-433C-B223-41D7996276EB}" name="D⁺" dataDxfId="5">
@@ -2042,7 +2126,7 @@
     <tableColumn id="4" xr3:uid="{5697A1F7-EEFF-4E14-95E0-81518BC7D856}" name="Cᵢ = D⁻ / (D⁺ + D⁻)" dataDxfId="3">
       <calculatedColumnFormula>C45 / (B45 + C45)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{491CF47D-FAD8-4ED6-869D-445F5C75F3C0}" name="Ranking" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{491CF47D-FAD8-4ED6-869D-445F5C75F3C0}" name="Ranking" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2332,6 +2416,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ADADEA-5DD1-4ED8-9A0B-2C51335925D2}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="19.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="D1:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E7723-33EF-4161-B7E9-22D0A18BB71B}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -2648,276 +2915,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ADADEA-5DD1-4ED8-9A0B-2C51335925D2}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="19.77734375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="D1:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="23.6640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="18" style="5" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="5"/>
-    <col min="24" max="24" width="23.88671875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="24.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="23.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="18" style="7" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="7"/>
+    <col min="24" max="24" width="23.88671875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="7" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2925,46 +3009,46 @@
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>45.254027200000003</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>5.5123018290000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>574.85113869999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>1.803629712</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>16.777777780000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>12.592592590000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>6.0740740740000003</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>46.407407409999998</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="7">
         <v>42.296296300000002</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>1.259259259</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>13545</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>1458</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>157528.995</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="7">
         <v>11080</v>
       </c>
     </row>
@@ -2972,46 +3056,46 @@
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>41.622514189999997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>5.7391780609999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>515.02724079999996</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>2.3627501450000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>16.227272729999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>15.59090909</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>5.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>39.68181818</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="7">
         <v>46.454545449999998</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="7">
         <v>0.86363636399999999</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>14105</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="7">
         <v>1022</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>125467.4186</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="7">
         <v>11068</v>
       </c>
     </row>
@@ -3019,46 +3103,46 @@
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>43.634121309999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>4.7887706249999997</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>468.80010149999998</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>2.4657860309999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>14.33333333</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>14.93333333</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>5.2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>48.933333330000004</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="7">
         <v>43.6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <v>0.93333333299999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>7997</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <v>632</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>97795.979640000005</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="7">
         <v>8083</v>
       </c>
     </row>
@@ -3066,46 +3150,46 @@
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>62.709726879999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>5.7595729750000002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>521.81041760000005</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>2.337397401</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>15.33333333</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>5.5555555559999998</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>57.944444439999998</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>58.944444439999998</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>0.33333333300000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>11756</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>842</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>86468.961800000005</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="7">
         <v>7206</v>
       </c>
     </row>
@@ -3113,99 +3197,99 @@
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>44.768243009999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>5.7898315309999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>536.02272960000005</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>2.6654083439999998</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>14.722222220000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>16.333333329999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>6.2222222220000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>52.055555560000002</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>49.888888889999997</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>0.77777777800000003</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="7">
         <v>9381</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="7">
         <v>968</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="7">
         <v>110343.46369999999</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="7">
         <v>8662</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3213,59 +3297,59 @@
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <f>B3/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.41979323316248768</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <f>C3/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.44571487356465167</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <f>D3/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.49021920685082465</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <f>E3/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.34404130956222467</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <f>F3/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.47341116707577791</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <f>G3/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.37518134316013807</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="7">
         <f>H3/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.47464623391007721</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <f>I3/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.42032341858369571</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="7">
         <f>J3/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.38918249801980159</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <f>K3/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.63612241753961563</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <f>L3/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.5222856363925239</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="7">
         <f>M3/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.6384147135069187</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="7">
         <f>N3/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.59636681175226103</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="7">
         <f>O3/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.52968985099601296</v>
       </c>
@@ -3274,59 +3358,59 @@
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <f>B4/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.38610596415983989</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <f>C4/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46405968018041155</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <f>D4/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.43920282747027056</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <f>E4/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.45069320417922693</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <f>F4/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.45787780850952742</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <f>G4/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.46451262293031953</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <f>H4/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.42978637644210999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <f>I4/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.35940808599103441</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="7">
         <f>J4/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.42744395193310125</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <f>K4/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.43627112353263503</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <f>L4/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.54387884099789963</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="7">
         <f>M4/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.44750331769826535</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="7">
         <f>N4/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.47498941010363416</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="7">
         <f>O4/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.52911617967724467</v>
       </c>
@@ -3335,59 +3419,59 @@
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <f>B5/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.40476638200564613</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <f>C5/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.38721143360163285</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <f>D5/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.39978143637086977</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <f>E5/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.47034723899329972</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <f>F5/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.4044373545065183</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <f>G5/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.44492093399866411</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <f>H5/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.40634348318163127</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="7">
         <f>I5/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.44320135719387516</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="7">
         <f>J5/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.40117831578703383</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <f>K5/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.47147896822275193</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <f>L5/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.30835867362355218</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="7">
         <f>M5/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.27673394988777272</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="7">
         <f>N5/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.37023201081233226</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="7">
         <f>O5/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.38641543913364373</v>
       </c>
@@ -3396,59 +3480,59 @@
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <f>B6/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.58171881325275199</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <f>C6/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46570877647391429</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <f>D6/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.44498735728497152</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <f>E6/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.44585718313304235</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <f>F6/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.47968151359602901</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <f>G6/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.45683845901914566</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <f>H6/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.43412765300655842</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="7">
         <f>I6/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.52481722927934227</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="7">
         <f>J6/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.5423677281064585</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="7">
         <f>K6/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.16838534568559224</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="7">
         <f>L6/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.45330305953713634</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="7">
         <f>M6/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.3686866864011149</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="7">
         <f>N6/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.32735065099725957</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="7">
         <f>O6/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.34448962692033114</v>
       </c>
@@ -3457,66 +3541,66 @@
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <f>B7/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.41528691784964145</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <f>C7/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46815542922990738</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <f>D7/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.45710727468117318</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <f>E7/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.50842507810042137</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <f>F7/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.41541046105804064</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <f>G7/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.48663227157034938</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <f>H7/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.48622297131108255</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="7">
         <f>I7/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.47148009963034282</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="7">
         <f>J7/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.45904450507744637</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="7">
         <f>K7/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.39289914043820462</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="7">
         <f>L7/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.36172473643398062</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="7">
         <f>M7/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.42385832830912024</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="7">
         <f>N7/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.41773376161303094</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="7">
         <f>O7/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.41409508026421155</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3873,191 +3957,191 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="13" cm="1">
+      <c r="B25" s="12" cm="1">
         <f t="array" ref="B25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(B19:B23, LN(B19:B23))</f>
         <v>0.99246747941383806</v>
       </c>
-      <c r="C25" s="13" cm="1">
+      <c r="C25" s="12" cm="1">
         <f t="array" ref="C25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(C19:C23, LN(C19:C23))</f>
         <v>0.99849925324789324</v>
       </c>
-      <c r="D25" s="13" cm="1">
+      <c r="D25" s="12" cm="1">
         <f t="array" ref="D25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(D19:D23, LN(D19:D23))</f>
         <v>0.99866473270691924</v>
       </c>
-      <c r="E25" s="13" cm="1">
+      <c r="E25" s="12" cm="1">
         <f t="array" ref="E25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(E19:E23, LN(E19:E23))</f>
         <v>0.99510338663359355</v>
       </c>
-      <c r="F25" s="13" cm="1">
+      <c r="F25" s="12" cm="1">
         <f t="array" ref="F25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(F19:F23, LN(F19:F23))</f>
         <v>0.99852472958669147</v>
       </c>
-      <c r="G25" s="13" cm="1">
+      <c r="G25" s="12" cm="1">
         <f t="array" ref="G25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(G19:G23, LN(G19:G23))</f>
         <v>0.99769839398785143</v>
       </c>
-      <c r="H25" s="13" cm="1">
+      <c r="H25" s="12" cm="1">
         <f t="array" ref="H25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(H19:H23, LN(H19:H23))</f>
         <v>0.99862492013012349</v>
       </c>
-      <c r="I25" s="13" cm="1">
+      <c r="I25" s="12" cm="1">
         <f t="array" ref="I25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(I19:I23, LN(I19:I23))</f>
         <v>0.99522704988672073</v>
       </c>
-      <c r="J25" s="13" cm="1">
+      <c r="J25" s="12" cm="1">
         <f t="array" ref="J25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(J19:J23, LN(J19:J23))</f>
         <v>0.99540763846788216</v>
       </c>
-      <c r="K25" s="13" cm="1">
+      <c r="K25" s="12" cm="1">
         <f t="array" ref="K25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(K19:K23, LN(K19:K23))</f>
         <v>0.95575788115496996</v>
       </c>
-      <c r="L25" s="13" cm="1">
+      <c r="L25" s="12" cm="1">
         <f t="array" ref="L25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(L19:L23, LN(L19:L23))</f>
         <v>0.98630528778140192</v>
       </c>
-      <c r="M25" s="13" cm="1">
+      <c r="M25" s="12" cm="1">
         <f t="array" ref="M25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(M19:M23, LN(M19:M23))</f>
         <v>0.97688595060643746</v>
       </c>
-      <c r="N25" s="13" cm="1">
+      <c r="N25" s="12" cm="1">
         <f t="array" ref="N25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(N19:N23, LN(N19:N23))</f>
         <v>0.98620394901094111</v>
       </c>
-      <c r="O25" s="13" cm="1">
+      <c r="O25" s="12" cm="1">
         <f t="array" ref="O25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(O19:O23, LN(O19:O23))</f>
         <v>0.99085513714639883</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <f>1-B25</f>
         <v>7.5325205861619393E-3</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <f t="shared" ref="C26:O26" si="0">1-C25</f>
         <v>1.500746752106763E-3</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>1.3352672930807552E-3</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <f t="shared" si="0"/>
         <v>4.8966133664064548E-3</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <f t="shared" si="0"/>
         <v>1.475270413308527E-3</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <f t="shared" si="0"/>
         <v>2.3016060121485715E-3</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <f t="shared" si="0"/>
         <v>1.3750798698765054E-3</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <f t="shared" si="0"/>
         <v>4.7729501132792729E-3</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <f t="shared" si="0"/>
         <v>4.592361532117839E-3</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <f t="shared" si="0"/>
         <v>4.4242118845030043E-2</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <f t="shared" si="0"/>
         <v>1.3694712218598082E-2</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <f t="shared" si="0"/>
         <v>2.3114049393562541E-2</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="12">
         <f t="shared" si="0"/>
         <v>1.3796050989058894E-2</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="12">
         <f t="shared" si="0"/>
         <v>9.1448628536011656E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <f t="shared" ref="B27:O27" si="1">B26 / SUM($B$26:$O$26)</f>
         <v>5.630771860092993E-2</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <f t="shared" si="1"/>
         <v>1.1218505789964852E-2</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <f t="shared" si="1"/>
         <v>9.9815001015650991E-3</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <f t="shared" si="1"/>
         <v>3.6603567740616502E-2</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <f t="shared" si="1"/>
         <v>1.1028062962809705E-2</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f t="shared" si="1"/>
         <v>1.7205154925212719E-2</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f t="shared" si="1"/>
         <v>1.0279110356372948E-2</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f t="shared" si="1"/>
         <v>3.5679150000404405E-2</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <f t="shared" si="1"/>
         <v>3.4329199357154928E-2</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <f t="shared" si="1"/>
         <v>0.33072233254979833</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <f t="shared" si="1"/>
         <v>0.1023718412853946</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <f t="shared" si="1"/>
         <v>0.17278404673353442</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="12">
         <f t="shared" si="1"/>
         <v>0.10312937721313631</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="12">
         <f t="shared" si="1"/>
         <v>6.8360432383105241E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4413,119 +4497,119 @@
         <v>2.8307718734578172E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:15" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:15" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:15" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
     </row>
     <row r="39" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="20" t="s">
+      <c r="O39" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <f>MIN(Table79[manufacturing_costs])</f>
         <v>2.1740745980053003E-2</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <f>MIN(Table79[shipping_costs])</f>
         <v>4.3439337098005095E-3</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <f>MIN(Table79[costs])</f>
         <v>3.9904184477396777E-3</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <f>MAX(Table79[defect_rates])</f>
         <v>1.8610171787277009E-2</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <f>MIN(Table79[lead_times])</f>
         <v>4.4601606100100732E-3</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <f>MIN(Table79[manufacturing_lead_time])</f>
         <v>6.4550531341195727E-3</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <f>MIN(Table79[shipping_times])</f>
         <v>4.1768495062169632E-3</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <f>MAX(Table79[availability])</f>
         <v>1.8725032646254285E-2</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="12">
         <f>MAX(Table79[stock_levels])</f>
         <v>1.8619049863053815E-2</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <f>MAX(Table79[inspection_results])</f>
         <v>0.21037988971591842</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <f>MAX(Table79[production_volumes])</f>
         <v>5.5677878389121346E-2</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="12">
         <f>MAX(Table79[order_quantities])</f>
         <v>0.11030787769395543</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="12">
         <f>MAX(Table79[revenue_generated])</f>
         <v>6.1502937886594382E-2</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="20">
         <f>MAX(Table79[number_of_products_sold])</f>
         <v>3.6209827243030034E-2</v>
       </c>
@@ -4619,19 +4703,19 @@
       <c r="O43" s="8"/>
     </row>
     <row r="44" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="8"/>
@@ -4646,22 +4730,22 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="14" cm="1">
+      <c r="B45" s="26" cm="1">
         <f t="array" ref="B45">SQRT(SUMPRODUCT((B31:O31 - $B$40:$O$40)^2))</f>
         <v>9.4106537746808366E-3</v>
       </c>
-      <c r="C45" s="14" cm="1">
+      <c r="C45" s="26" cm="1">
         <f t="array" ref="C45">SQRT(SUMPRODUCT((B31:O31 - $B$41:$O$41)^2))</f>
         <v>0.17127720864857798</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="26">
         <f>C45 / (B45 + C45)</f>
         <v>0.94791762076062136</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="29">
         <v>1</v>
       </c>
       <c r="F45" s="8"/>
@@ -4676,22 +4760,22 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="14" cm="1">
+      <c r="B46" s="26" cm="1">
         <f t="array" ref="B46">SQRT(SUMPRODUCT((B32:O32 - $B$40:$O$40)^2))</f>
         <v>7.5312079657210748E-2</v>
       </c>
-      <c r="C46" s="14" cm="1">
+      <c r="C46" s="26" cm="1">
         <f t="array" ref="C46">SQRT(SUMPRODUCT((B32:O32 - $B$41:$O$41)^2))</f>
         <v>9.9153234018936665E-2</v>
       </c>
-      <c r="D46" s="14">
-        <f t="shared" ref="D46:D49" si="16">C46 / (B46 + C46)</f>
+      <c r="D46" s="26">
+        <f>C46 / (B46 + C46)</f>
         <v>0.56832634481711719</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="29">
         <v>2</v>
       </c>
       <c r="F46" s="8"/>
@@ -4706,22 +4790,22 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="14" cm="1">
+      <c r="B47" s="26" cm="1">
         <f t="array" ref="B47">SQRT(SUMPRODUCT((B33:O33 - $B$40:$O$40)^2))</f>
         <v>9.0154638642800364E-2</v>
       </c>
-      <c r="C47" s="14" cm="1">
+      <c r="C47" s="26" cm="1">
         <f t="array" ref="C47">SQRT(SUMPRODUCT((B33:O33 - $B$41:$O$41)^2))</f>
         <v>0.10103994883181538</v>
       </c>
-      <c r="D47" s="14">
-        <f t="shared" si="16"/>
+      <c r="D47" s="26">
+        <f>C47 / (B47 + C47)</f>
         <v>0.52846657515987527</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="29">
         <v>3</v>
       </c>
       <c r="F47" s="8"/>
@@ -4736,28 +4820,28 @@
       <c r="O47" s="8"/>
     </row>
     <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="14" cm="1">
+      <c r="A48" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="26" cm="1">
         <f t="array" ref="B48">SQRT(SUMPRODUCT((B34:O34 - $B$40:$O$40)^2))</f>
         <v>0.16506841982099046</v>
       </c>
-      <c r="C48" s="14" cm="1">
+      <c r="C48" s="26" cm="1">
         <f t="array" ref="C48">SQRT(SUMPRODUCT((B34:O34 - $B$41:$O$41)^2))</f>
         <v>2.3446266981134736E-2</v>
       </c>
-      <c r="D48" s="14">
-        <f t="shared" si="16"/>
+      <c r="D48" s="26">
+        <f>C48 / (B48 + C48)</f>
         <v>0.12437368875001849</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="28" cm="1">
         <f t="array" ref="B49">SQRT(SUMPRODUCT((B35:O35 - $B$40:$O$40)^2))</f>
@@ -4768,10 +4852,10 @@
         <v>8.0282530976255623E-2</v>
       </c>
       <c r="D49" s="28">
-        <f t="shared" si="16"/>
+        <f>C49 / (B49 + C49)</f>
         <v>0.46380273761368679</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="31">
         <v>5</v>
       </c>
     </row>

--- a/tools/manipulation.xlsx
+++ b/tools/manipulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\dss\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E7A23-1AF8-4A7F-BA52-67509B45F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF17CDB-3E39-4719-B7F2-B6438298BBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="5" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>Ranking</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -401,12 +407,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -416,9 +416,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -426,18 +423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -485,6 +470,24 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,6 +512,106 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -525,12 +628,60 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -543,6 +694,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -561,6 +728,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -579,6 +762,362 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -595,6 +1134,29 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -613,6 +1175,13 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -629,512 +1198,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1779,66 +1842,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1878,50 +1881,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}" name="Table14" displayName="Table14" ref="A10:O15" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
-  <autoFilter ref="A10:O15" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}" name="Table14" displayName="Table14" ref="A11:O16" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+  <autoFilter ref="A11:O16" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0A1D91DF-8A98-4842-BDD2-2E434B1E4483}" name="supplier_name" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{33A2B790-EFE6-431C-AB14-54A89D0492B3}" name="manufacturing_costs" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{0A1D91DF-8A98-4842-BDD2-2E434B1E4483}" name="supplier_name" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{33A2B790-EFE6-431C-AB14-54A89D0492B3}" name="manufacturing_costs" dataDxfId="94">
       <calculatedColumnFormula>B3/SQRT(SUMSQ(Table16[manufacturing_costs]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5A85F90F-CE1C-4DC4-9BE7-708C0AEED098}" name="shipping_costs" dataDxfId="89">
+    <tableColumn id="3" xr3:uid="{5A85F90F-CE1C-4DC4-9BE7-708C0AEED098}" name="shipping_costs" dataDxfId="93">
       <calculatedColumnFormula>C3/SQRT(SUMSQ(Table16[shipping_costs]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8431E0DC-20C5-440B-87E0-6DD54B935E4A}" name="costs" dataDxfId="88">
+    <tableColumn id="4" xr3:uid="{8431E0DC-20C5-440B-87E0-6DD54B935E4A}" name="costs" dataDxfId="92">
       <calculatedColumnFormula>D3/SQRT(SUMSQ(Table16[costs]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6D47332D-68D1-4898-B854-823010191086}" name="defect_rates" dataDxfId="87">
+    <tableColumn id="5" xr3:uid="{6D47332D-68D1-4898-B854-823010191086}" name="defect_rates" dataDxfId="91">
       <calculatedColumnFormula>E3/SQRT(SUMSQ(Table16[defect_rates]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B053840B-F30B-445F-9FD1-6E8C69D7472B}" name="lead_times" dataDxfId="86">
+    <tableColumn id="6" xr3:uid="{B053840B-F30B-445F-9FD1-6E8C69D7472B}" name="lead_times" dataDxfId="90">
       <calculatedColumnFormula>F3/SQRT(SUMSQ(Table16[lead_times]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D9ED9FFF-594F-485E-8FEC-505FDF836BFE}" name="manufacturing_lead_time" dataDxfId="85">
+    <tableColumn id="7" xr3:uid="{D9ED9FFF-594F-485E-8FEC-505FDF836BFE}" name="manufacturing_lead_time" dataDxfId="89">
       <calculatedColumnFormula>G3/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0186B6BB-DA09-4CD3-90C0-A847089D8E5E}" name="shipping_times" dataDxfId="84">
+    <tableColumn id="8" xr3:uid="{0186B6BB-DA09-4CD3-90C0-A847089D8E5E}" name="shipping_times" dataDxfId="88">
       <calculatedColumnFormula>H3/SQRT(SUMSQ(Table16[shipping_times]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{54280F80-624F-4222-A36A-60F4077E8743}" name="availability" dataDxfId="83">
+    <tableColumn id="9" xr3:uid="{54280F80-624F-4222-A36A-60F4077E8743}" name="availability" dataDxfId="87">
       <calculatedColumnFormula>I3/SQRT(SUMSQ(Table16[availability]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C266BA6D-4BD5-4FF4-9983-5F9260597337}" name="stock_levels" dataDxfId="82">
+    <tableColumn id="10" xr3:uid="{C266BA6D-4BD5-4FF4-9983-5F9260597337}" name="stock_levels" dataDxfId="86">
       <calculatedColumnFormula>J3/SQRT(SUMSQ(Table16[stock_levels]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7286E7BF-F833-43F4-A9B5-5BBF22571D56}" name="inspection_results" dataDxfId="81">
+    <tableColumn id="11" xr3:uid="{7286E7BF-F833-43F4-A9B5-5BBF22571D56}" name="inspection_results" dataDxfId="85">
       <calculatedColumnFormula>K3/SQRT(SUMSQ(Table16[inspection_results]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F28B008C-4512-4256-8BAF-EEE3071CC458}" name="production_volumes" dataDxfId="80">
+    <tableColumn id="12" xr3:uid="{F28B008C-4512-4256-8BAF-EEE3071CC458}" name="production_volumes" dataDxfId="84">
       <calculatedColumnFormula>L3/SQRT(SUMSQ(Table16[production_volumes]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E2BB8519-DAA2-4D86-AC16-F528BCFD6B0E}" name="order_quantities" dataDxfId="79">
+    <tableColumn id="13" xr3:uid="{E2BB8519-DAA2-4D86-AC16-F528BCFD6B0E}" name="order_quantities" dataDxfId="83">
       <calculatedColumnFormula>M3/SQRT(SUMSQ(Table16[order_quantities]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{43099701-05F1-4C05-9410-23B579DC076B}" name="revenue_generated" dataDxfId="78">
+    <tableColumn id="14" xr3:uid="{43099701-05F1-4C05-9410-23B579DC076B}" name="revenue_generated" dataDxfId="82">
       <calculatedColumnFormula>N3/SQRT(SUMSQ(Table16[revenue_generated]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{829A8997-2867-4B54-92BE-E9F10B9D9C93}" name="number_of_products_sold" dataDxfId="77">
+    <tableColumn id="15" xr3:uid="{829A8997-2867-4B54-92BE-E9F10B9D9C93}" name="number_of_products_sold" dataDxfId="81">
       <calculatedColumnFormula>O3/SQRT(SUMSQ(Table16[number_of_products_sold]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1930,75 +1933,75 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D1CAD41-A138-4B30-AD74-CF03F5E7C8EE}" name="Table16" displayName="Table16" ref="A2:O7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D1CAD41-A138-4B30-AD74-CF03F5E7C8EE}" name="Table16" displayName="Table16" ref="A2:O7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A2:O7" xr:uid="{0D1CAD41-A138-4B30-AD74-CF03F5E7C8EE}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1DED719D-28D3-4CB8-8A2D-07561E07BB1A}" name="supplier_name" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{F4C4B888-9E70-4321-AC9C-7C9E2E062DA2}" name="manufacturing_costs" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{D84DEDD0-F6D3-43AB-A755-6A7EDA23060E}" name="shipping_costs" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{A8F3DAC4-AE3E-4A68-98E9-D3FC665C497C}" name="costs" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{2759489F-2C0B-4FD2-B54F-FCDC7354317E}" name="defect_rates" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{56966151-33F3-4664-9F9A-D66C6243B65C}" name="lead_times" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{3D266A9A-8B32-4EDA-9E58-87F130CC136B}" name="manufacturing_lead_time" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{45DD4073-DCF1-4CED-8BC9-0A6ED751421F}" name="shipping_times" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{3DF85720-E107-4C69-80DB-5D68DED5C928}" name="availability" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{0CDE291E-E9DA-45E0-A65F-184BECCDE62D}" name="stock_levels" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{92227FF1-0398-42FB-81D4-D74165478E4A}" name="inspection_results" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{CCB5D7CA-6446-48ED-87B3-37BD2268E2A9}" name="production_volumes" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{B4ED4912-7FEC-4581-A37A-6BEBB087565B}" name="order_quantities" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{6705FED8-0FAF-43B7-A0F8-9D9A6F18591D}" name="revenue_generated" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{D966105C-7981-4938-B550-57045B09084B}" name="number_of_products_sold" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{1DED719D-28D3-4CB8-8A2D-07561E07BB1A}" name="supplier_name" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{F4C4B888-9E70-4321-AC9C-7C9E2E062DA2}" name="manufacturing_costs" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{D84DEDD0-F6D3-43AB-A755-6A7EDA23060E}" name="shipping_costs" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{A8F3DAC4-AE3E-4A68-98E9-D3FC665C497C}" name="costs" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{2759489F-2C0B-4FD2-B54F-FCDC7354317E}" name="defect_rates" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{56966151-33F3-4664-9F9A-D66C6243B65C}" name="lead_times" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{3D266A9A-8B32-4EDA-9E58-87F130CC136B}" name="manufacturing_lead_time" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{45DD4073-DCF1-4CED-8BC9-0A6ED751421F}" name="shipping_times" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{3DF85720-E107-4C69-80DB-5D68DED5C928}" name="availability" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{0CDE291E-E9DA-45E0-A65F-184BECCDE62D}" name="stock_levels" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{92227FF1-0398-42FB-81D4-D74165478E4A}" name="inspection_results" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{CCB5D7CA-6446-48ED-87B3-37BD2268E2A9}" name="production_volumes" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{B4ED4912-7FEC-4581-A37A-6BEBB087565B}" name="order_quantities" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{6705FED8-0FAF-43B7-A0F8-9D9A6F18591D}" name="revenue_generated" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{D966105C-7981-4938-B550-57045B09084B}" name="number_of_products_sold" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}" name="Table7" displayName="Table7" ref="A18:O22" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A18:O22" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}" name="Table7" displayName="Table7" ref="A20:O24" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A20:O24" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{4F845712-8154-4EDC-AD12-38F0C77906CC}" name="supplier_name" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{EF0A916A-9213-4B49-8757-D5735325E1FE}" name="manufacturing_costs" dataDxfId="56">
-      <calculatedColumnFormula>B11/SUM(Table14[manufacturing_costs])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{CEE44804-95A5-446A-A8C9-C78F1159BD94}" name="shipping_costs" dataDxfId="55">
-      <calculatedColumnFormula>C11/SUM(Table14[shipping_costs])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{DDC3CA24-4023-4E47-B1EF-ADB1056F0BCF}" name="costs" dataDxfId="54">
-      <calculatedColumnFormula>D11/SUM(Table14[costs])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{390C05F0-85A8-4788-BC91-CBD4841D157A}" name="defect_rates" dataDxfId="53">
-      <calculatedColumnFormula>E11/SUM(Table14[defect_rates])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{E11D9F7C-57CB-48D0-9E8D-008D7D7446E8}" name="lead_times" dataDxfId="52">
-      <calculatedColumnFormula>F11/SUM(Table14[lead_times])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{0D54CD9E-F384-4D62-8D0E-7EB2FC96D8B6}" name="manufacturing_lead_time" dataDxfId="51">
-      <calculatedColumnFormula>G11/SUM(Table14[manufacturing_lead_time])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{AD74D6C8-FB92-4A5C-A09B-A07115092B92}" name="shipping_times" dataDxfId="50">
-      <calculatedColumnFormula>H11/SUM(Table14[shipping_times])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{442C2486-7C04-44BC-A78A-9D5748007714}" name="availability" dataDxfId="49">
-      <calculatedColumnFormula>I11/SUM(Table14[availability])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{3D6FD2AF-867C-4E06-9273-F956F3C54AE5}" name="stock_levels" dataDxfId="48">
-      <calculatedColumnFormula>J11/SUM(Table14[stock_levels])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{34531D84-B1E1-49AB-BC1A-E3355834674F}" name="inspection_results" dataDxfId="47">
-      <calculatedColumnFormula>K11/SUM(Table14[inspection_results])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{7BE0AF8A-78D2-41AF-A297-620AE0DABB0D}" name="production_volumes" dataDxfId="46">
-      <calculatedColumnFormula>L11/SUM(Table14[production_volumes])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{BE66E21C-73BE-4536-87E4-CD84A79C57BA}" name="order_quantities" dataDxfId="45">
-      <calculatedColumnFormula>M11/SUM(Table14[order_quantities])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{50182055-85AD-4A65-8917-26456ED4819E}" name="revenue_generated" dataDxfId="44">
-      <calculatedColumnFormula>N11/SUM(Table14[revenue_generated])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{35972DB8-D653-4F97-BBFC-10D848675A5D}" name="number_of_products_sold" dataDxfId="43">
-      <calculatedColumnFormula>O11/SUM(Table14[number_of_products_sold])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4F845712-8154-4EDC-AD12-38F0C77906CC}" name="supplier_name" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{EF0A916A-9213-4B49-8757-D5735325E1FE}" name="manufacturing_costs" dataDxfId="60">
+      <calculatedColumnFormula>B12/SUM(Table14[manufacturing_costs])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CEE44804-95A5-446A-A8C9-C78F1159BD94}" name="shipping_costs" dataDxfId="59">
+      <calculatedColumnFormula>C12/SUM(Table14[shipping_costs])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DDC3CA24-4023-4E47-B1EF-ADB1056F0BCF}" name="costs" dataDxfId="58">
+      <calculatedColumnFormula>D12/SUM(Table14[costs])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{390C05F0-85A8-4788-BC91-CBD4841D157A}" name="defect_rates" dataDxfId="57">
+      <calculatedColumnFormula>E12/SUM(Table14[defect_rates])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E11D9F7C-57CB-48D0-9E8D-008D7D7446E8}" name="lead_times" dataDxfId="56">
+      <calculatedColumnFormula>F12/SUM(Table14[lead_times])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0D54CD9E-F384-4D62-8D0E-7EB2FC96D8B6}" name="manufacturing_lead_time" dataDxfId="55">
+      <calculatedColumnFormula>G12/SUM(Table14[manufacturing_lead_time])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AD74D6C8-FB92-4A5C-A09B-A07115092B92}" name="shipping_times" dataDxfId="54">
+      <calculatedColumnFormula>H12/SUM(Table14[shipping_times])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{442C2486-7C04-44BC-A78A-9D5748007714}" name="availability" dataDxfId="53">
+      <calculatedColumnFormula>I12/SUM(Table14[availability])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{3D6FD2AF-867C-4E06-9273-F956F3C54AE5}" name="stock_levels" dataDxfId="52">
+      <calculatedColumnFormula>J12/SUM(Table14[stock_levels])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{34531D84-B1E1-49AB-BC1A-E3355834674F}" name="inspection_results" dataDxfId="51">
+      <calculatedColumnFormula>K12/SUM(Table14[inspection_results])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{7BE0AF8A-78D2-41AF-A297-620AE0DABB0D}" name="production_volumes" dataDxfId="50">
+      <calculatedColumnFormula>L12/SUM(Table14[production_volumes])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{BE66E21C-73BE-4536-87E4-CD84A79C57BA}" name="order_quantities" dataDxfId="49">
+      <calculatedColumnFormula>M12/SUM(Table14[order_quantities])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{50182055-85AD-4A65-8917-26456ED4819E}" name="revenue_generated" dataDxfId="48">
+      <calculatedColumnFormula>N12/SUM(Table14[revenue_generated])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{35972DB8-D653-4F97-BBFC-10D848675A5D}" name="number_of_products_sold" dataDxfId="47">
+      <calculatedColumnFormula>O12/SUM(Table14[number_of_products_sold])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2006,51 +2009,51 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}" name="Table79" displayName="Table79" ref="A30:O35" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A30:O35" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}" name="Table79" displayName="Table79" ref="A33:O38" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A33:O38" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{7161A442-103B-457A-B9C9-75329CD64014}" name="supplier_name" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{93933CE0-32A1-4103-8AE5-D524ED4B8E6C}" name="manufacturing_costs" dataDxfId="39">
-      <calculatedColumnFormula>B11*$B$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{2B762177-7C86-4E5F-964A-B1922709554C}" name="shipping_costs" dataDxfId="38">
-      <calculatedColumnFormula>C11*$C$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{25F78D64-8361-46F2-9B56-791919FE22D2}" name="costs" dataDxfId="37">
-      <calculatedColumnFormula>D11*$D$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{A2FD80AF-1160-48CD-A8DC-DADCB6A635DC}" name="defect_rates" dataDxfId="36">
-      <calculatedColumnFormula>E11*$E$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{4D6216B9-29DB-44D6-9C94-E57652C2FFCC}" name="lead_times" dataDxfId="35">
-      <calculatedColumnFormula>F11*$F$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{26B63A24-BFE9-470C-8FED-BB9479B7F20C}" name="manufacturing_lead_time" dataDxfId="34">
-      <calculatedColumnFormula>G11*$G$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{8A2471E4-C631-404D-8595-A8C295078A9F}" name="shipping_times" dataDxfId="33">
-      <calculatedColumnFormula>H11*$H$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDC3517A-2178-409F-9476-6CD07688F302}" name="availability" dataDxfId="32">
-      <calculatedColumnFormula>I11*$I$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{E71202E5-5170-46A6-922C-75BD674A432C}" name="stock_levels" dataDxfId="31">
-      <calculatedColumnFormula>J11*$J$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{352F5122-8420-4714-8671-A39A8EAF2963}" name="inspection_results" dataDxfId="30">
-      <calculatedColumnFormula>K11*$K$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{4F638847-7720-44BC-A0C6-5093F540FDF5}" name="production_volumes" dataDxfId="29">
-      <calculatedColumnFormula>L11*$L$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{6883D8AE-C17B-41F0-9E52-E72DE86D4B10}" name="order_quantities" dataDxfId="28">
-      <calculatedColumnFormula>M11*$M$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{45CA209C-C13B-4A10-82B6-86B6CDD709C1}" name="revenue_generated" dataDxfId="27">
-      <calculatedColumnFormula>N11*$N$27</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{C2F4FE38-BBCD-43AD-B20D-1D52D66FD321}" name="number_of_products_sold" dataDxfId="26">
-      <calculatedColumnFormula>O11*$O$27</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7161A442-103B-457A-B9C9-75329CD64014}" name="supplier_name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{93933CE0-32A1-4103-8AE5-D524ED4B8E6C}" name="manufacturing_costs" dataDxfId="43">
+      <calculatedColumnFormula>B12*$B$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2B762177-7C86-4E5F-964A-B1922709554C}" name="shipping_costs" dataDxfId="42">
+      <calculatedColumnFormula>C12*$C$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{25F78D64-8361-46F2-9B56-791919FE22D2}" name="costs" dataDxfId="41">
+      <calculatedColumnFormula>D12*$D$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A2FD80AF-1160-48CD-A8DC-DADCB6A635DC}" name="defect_rates" dataDxfId="40">
+      <calculatedColumnFormula>E12*$E$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4D6216B9-29DB-44D6-9C94-E57652C2FFCC}" name="lead_times" dataDxfId="39">
+      <calculatedColumnFormula>F12*$F$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{26B63A24-BFE9-470C-8FED-BB9479B7F20C}" name="manufacturing_lead_time" dataDxfId="38">
+      <calculatedColumnFormula>G12*$G$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8A2471E4-C631-404D-8595-A8C295078A9F}" name="shipping_times" dataDxfId="37">
+      <calculatedColumnFormula>H12*$H$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CDC3517A-2178-409F-9476-6CD07688F302}" name="availability" dataDxfId="36">
+      <calculatedColumnFormula>I12*$I$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E71202E5-5170-46A6-922C-75BD674A432C}" name="stock_levels" dataDxfId="35">
+      <calculatedColumnFormula>J12*$J$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{352F5122-8420-4714-8671-A39A8EAF2963}" name="inspection_results" dataDxfId="34">
+      <calculatedColumnFormula>K12*$K$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{4F638847-7720-44BC-A0C6-5093F540FDF5}" name="production_volumes" dataDxfId="33">
+      <calculatedColumnFormula>L12*$L$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{6883D8AE-C17B-41F0-9E52-E72DE86D4B10}" name="order_quantities" dataDxfId="32">
+      <calculatedColumnFormula>M12*$M$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{45CA209C-C13B-4A10-82B6-86B6CDD709C1}" name="revenue_generated" dataDxfId="31">
+      <calculatedColumnFormula>N12*$N$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{C2F4FE38-BBCD-43AD-B20D-1D52D66FD321}" name="number_of_products_sold" dataDxfId="30">
+      <calculatedColumnFormula>O12*$O$29</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2058,50 +2061,50 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A39:O41" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
-  <autoFilter ref="A39:O41" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A43:O45" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{ABD60A6F-AAD7-4E9B-84BC-16409E0459EA}" name="manufacturing_costs" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="   " dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{ABD60A6F-AAD7-4E9B-84BC-16409E0459EA}" name="manufacturing_costs" dataDxfId="23">
       <calculatedColumnFormula>MAX(Table79[manufacturing_costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E94844B5-C583-4CCD-ADE6-2A6746741FEB}" name="shipping_costs" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{E94844B5-C583-4CCD-ADE6-2A6746741FEB}" name="shipping_costs" dataDxfId="22">
       <calculatedColumnFormula>MAX(Table79[shipping_costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{939EAD32-5FA1-429B-9E0C-DAE57050476C}" name="costs" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{939EAD32-5FA1-429B-9E0C-DAE57050476C}" name="costs" dataDxfId="21">
       <calculatedColumnFormula>MAX(Table79[costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{029A651F-EDAB-418C-9286-212A7D5C9CF4}" name="defect_rates" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{029A651F-EDAB-418C-9286-212A7D5C9CF4}" name="defect_rates" dataDxfId="20">
       <calculatedColumnFormula>MIN(Table79[defect_rates])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{162F4633-2A02-482F-84FF-DE32221504F5}" name="lead_times" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{162F4633-2A02-482F-84FF-DE32221504F5}" name="lead_times" dataDxfId="19">
       <calculatedColumnFormula>MAX(Table79[lead_times])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DBD0F88C-DB77-4A59-997E-52850E2B5652}" name="manufacturing_lead_time" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{DBD0F88C-DB77-4A59-997E-52850E2B5652}" name="manufacturing_lead_time" dataDxfId="18">
       <calculatedColumnFormula>MAX(Table79[manufacturing_lead_time])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A1E7C368-9C89-4E57-B948-18BB3ECA15D3}" name="shipping_times" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{A1E7C368-9C89-4E57-B948-18BB3ECA15D3}" name="shipping_times" dataDxfId="17">
       <calculatedColumnFormula>MAX(Table79[shipping_times])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{548ECC83-F2B3-45BF-9328-C7B8AD88A52A}" name="availability" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{548ECC83-F2B3-45BF-9328-C7B8AD88A52A}" name="availability" dataDxfId="16">
       <calculatedColumnFormula>MIN(Table79[availability])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{595069E0-77B5-44CF-B35B-17B3B8E4594C}" name="stock_levels" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{595069E0-77B5-44CF-B35B-17B3B8E4594C}" name="stock_levels" dataDxfId="15">
       <calculatedColumnFormula>MIN(Table79[stock_levels])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3724752C-FBAA-4F21-9AA0-C820E07EAC05}" name="inspection_results" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{3724752C-FBAA-4F21-9AA0-C820E07EAC05}" name="inspection_results" dataDxfId="14">
       <calculatedColumnFormula>MIN(Table79[inspection_results])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{04AA1198-734E-4B54-B7B7-1D1A73815BA7}" name="production_volumes" dataDxfId="12">
+    <tableColumn id="12" xr3:uid="{04AA1198-734E-4B54-B7B7-1D1A73815BA7}" name="production_volumes" dataDxfId="13">
       <calculatedColumnFormula>MIN(Table79[production_volumes])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3C66D84C-D89E-4E44-93AB-061F7D8139FE}" name="order_quantities" dataDxfId="11">
+    <tableColumn id="13" xr3:uid="{3C66D84C-D89E-4E44-93AB-061F7D8139FE}" name="order_quantities" dataDxfId="12">
       <calculatedColumnFormula>MIN(Table79[order_quantities])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5180452C-489C-41A1-9D75-9EBD27FA8C6C}" name="revenue_generated" dataDxfId="10">
+    <tableColumn id="14" xr3:uid="{5180452C-489C-41A1-9D75-9EBD27FA8C6C}" name="revenue_generated" dataDxfId="11">
       <calculatedColumnFormula>MIN(Table79[revenue_generated])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{BCCD70C8-AFC3-44BE-8442-CC12659FF984}" name="number_of_products_sold" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{BCCD70C8-AFC3-44BE-8442-CC12659FF984}" name="number_of_products_sold" dataDxfId="10">
       <calculatedColumnFormula>MIN(Table79[number_of_products_sold])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2110,21 +2113,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A44:E49" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
-  <autoFilter ref="A44:E49" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:E49">
-    <sortCondition descending="1" ref="D44:D49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A48:E53" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:E53">
+    <sortCondition descending="1" ref="D48:D53"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{38B91389-FD35-4773-A58E-17009CB1A9C0}" name="supplier_name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2AF81854-9495-433C-B223-41D7996276EB}" name="D⁺" dataDxfId="5">
-      <calculatedColumnFormula array="1">SQRT(SUMPRODUCT((B31:O31 - $B$40:$O$40)^2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{2245C506-6C90-416C-94CB-B4D7FC5B77EE}" name="D⁻" dataDxfId="4">
-      <calculatedColumnFormula array="1">SQRT(SUMPRODUCT((B31:O31 - $B$41:$O$41)^2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{5697A1F7-EEFF-4E14-95E0-81518BC7D856}" name="Cᵢ = D⁻ / (D⁺ + D⁻)" dataDxfId="3">
-      <calculatedColumnFormula>C45 / (B45 + C45)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{38B91389-FD35-4773-A58E-17009CB1A9C0}" name="supplier_name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2AF81854-9495-433C-B223-41D7996276EB}" name="D⁺" dataDxfId="3">
+      <calculatedColumnFormula array="1">SQRT(SUMPRODUCT((B34:O34 - $B$44:$O$44)^2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2245C506-6C90-416C-94CB-B4D7FC5B77EE}" name="D⁻" dataDxfId="2">
+      <calculatedColumnFormula array="1">SQRT(SUMPRODUCT((B34:O34 - $B$45:$O$45)^2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5697A1F7-EEFF-4E14-95E0-81518BC7D856}" name="Cᵢ = D⁻ / (D⁺ + D⁻)" dataDxfId="1">
+      <calculatedColumnFormula>C49 / (B49 + C49)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{491CF47D-FAD8-4ED6-869D-445F5C75F3C0}" name="Ranking" dataDxfId="0"/>
   </tableColumns>
@@ -2419,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ADADEA-5DD1-4ED8-9A0B-2C51335925D2}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2434,26 +2437,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2917,1956 +2920,1960 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="7"/>
-    <col min="18" max="18" width="23.6640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="18" style="7" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="7"/>
-    <col min="24" max="24" width="23.88671875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="5"/>
+    <col min="18" max="18" width="23.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="18" style="5" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="5"/>
+    <col min="24" max="24" width="23.88671875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>45.254027200000003</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>5.5123018290000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>574.85113869999998</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>1.803629712</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>16.777777780000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>12.592592590000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>6.0740740740000003</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>46.407407409999998</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>42.296296300000002</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>1.259259259</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>13545</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>1458</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>157528.995</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>11080</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>41.622514189999997</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>5.7391780609999996</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>515.02724079999996</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>2.3627501450000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>16.227272729999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>15.59090909</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>5.5</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>39.68181818</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>46.454545449999998</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>0.86363636399999999</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>14105</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>1022</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>125467.4186</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>11068</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>43.634121309999998</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>4.7887706249999997</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>468.80010149999998</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>2.4657860309999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>14.33333333</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>14.93333333</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>5.2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>48.933333330000004</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>43.6</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>0.93333333299999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>7997</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>632</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="5">
         <v>97795.979640000005</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="5">
         <v>8083</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>62.709726879999998</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>5.7595729750000002</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>521.81041760000005</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>2.337397401</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>17</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>15.33333333</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>5.5555555559999998</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>57.944444439999998</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>58.944444439999998</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>0.33333333300000001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>11756</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>842</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>86468.961800000005</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>7206</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>44.768243009999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>5.7898315309999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>536.02272960000005</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>2.6654083439999998</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>14.722222220000001</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>16.333333329999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>6.2222222220000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>52.055555560000002</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>49.888888889999997</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.77777777800000003</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>9381</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>968</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <v>110343.46369999999</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>8662</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="5">
         <f>B3/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.41979323316248768</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="5">
         <f>C3/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.44571487356465167</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="5">
         <f>D3/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.49021920685082465</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="5">
         <f>E3/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.34404130956222467</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="5">
         <f>F3/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.47341116707577791</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="5">
         <f>G3/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.37518134316013807</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="5">
         <f>H3/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.47464623391007721</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="5">
         <f>I3/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.42032341858369571</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="5">
         <f>J3/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.38918249801980159</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K12" s="5">
         <f>K3/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.63612241753961563</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L12" s="5">
         <f>L3/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.5222856363925239</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M12" s="5">
         <f>M3/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.6384147135069187</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="5">
         <f>N3/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.59636681175226103</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O12" s="5">
         <f>O3/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.52968985099601296</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="5">
         <f>B4/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.38610596415983989</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="5">
         <f>C4/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46405968018041155</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="5">
         <f>D4/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.43920282747027056</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="5">
         <f>E4/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.45069320417922693</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="5">
         <f>F4/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.45787780850952742</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="5">
         <f>G4/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.46451262293031953</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="5">
         <f>H4/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.42978637644210999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="5">
         <f>I4/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.35940808599103441</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="5">
         <f>J4/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.42744395193310125</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K13" s="5">
         <f>K4/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.43627112353263503</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="5">
         <f>L4/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.54387884099789963</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="5">
         <f>M4/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.44750331769826535</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="5">
         <f>N4/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.47498941010363416</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="5">
         <f>O4/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.52911617967724467</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="5">
         <f>B5/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.40476638200564613</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="5">
         <f>C5/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.38721143360163285</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="5">
         <f>D5/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.39978143637086977</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="5">
         <f>E5/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.47034723899329972</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="5">
         <f>F5/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.4044373545065183</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="5">
         <f>G5/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.44492093399866411</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="5">
         <f>H5/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.40634348318163127</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="5">
         <f>I5/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.44320135719387516</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="5">
         <f>J5/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.40117831578703383</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="5">
         <f>K5/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.47147896822275193</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L14" s="5">
         <f>L5/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.30835867362355218</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="5">
         <f>M5/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.27673394988777272</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N14" s="5">
         <f>N5/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.37023201081233226</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O14" s="5">
         <f>O5/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.38641543913364373</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="5">
         <f>B6/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.58171881325275199</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="5">
         <f>C6/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46570877647391429</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="5">
         <f>D6/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.44498735728497152</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="5">
         <f>E6/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.44585718313304235</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="5">
         <f>F6/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.47968151359602901</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="5">
         <f>G6/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.45683845901914566</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="5">
         <f>H6/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.43412765300655842</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="5">
         <f>I6/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.52481722927934227</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="5">
         <f>J6/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.5423677281064585</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K15" s="5">
         <f>K6/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.16838534568559224</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L15" s="5">
         <f>L6/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.45330305953713634</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M15" s="5">
         <f>M6/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.3686866864011149</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N15" s="5">
         <f>N6/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.32735065099725957</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O15" s="5">
         <f>O6/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.34448962692033114</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16" s="5">
         <f>B7/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.41528691784964145</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="5">
         <f>C7/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46815542922990738</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="5">
         <f>D7/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.45710727468117318</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="5">
         <f>E7/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.50842507810042137</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="5">
         <f>F7/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.41541046105804064</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="5">
         <f>G7/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.48663227157034938</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="5">
         <f>H7/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.48622297131108255</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="5">
         <f>I7/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.47148009963034282</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J16" s="5">
         <f>J7/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.45904450507744637</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K16" s="5">
         <f>K7/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.39289914043820462</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L16" s="5">
         <f>L7/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.36172473643398062</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M16" s="5">
         <f>M7/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.42385832830912024</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="5">
         <f>N7/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.41773376161303094</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O16" s="5">
         <f>O7/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.41409508026421155</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O20" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8">
-        <f>B11/SUM(Table14[manufacturing_costs])</f>
+      <c r="B21" s="6">
+        <f>B12/SUM(Table14[manufacturing_costs])</f>
         <v>0.19015205351409512</v>
       </c>
-      <c r="C19" s="8">
-        <f>C11/SUM(Table14[shipping_costs])</f>
+      <c r="C21" s="6">
+        <f>C12/SUM(Table14[shipping_costs])</f>
         <v>0.19979596790189239</v>
       </c>
-      <c r="D19" s="8">
-        <f>D11/SUM(Table14[costs])</f>
+      <c r="D21" s="6">
+        <f>D12/SUM(Table14[costs])</f>
         <v>0.2197013506473359</v>
       </c>
-      <c r="E19" s="8">
-        <f>E11/SUM(Table14[defect_rates])</f>
+      <c r="E21" s="6">
+        <f>E12/SUM(Table14[defect_rates])</f>
         <v>0.15501797244476362</v>
       </c>
-      <c r="F19" s="8">
-        <f>F11/SUM(Table14[lead_times])</f>
+      <c r="F21" s="6">
+        <f>F12/SUM(Table14[lead_times])</f>
         <v>0.21221413060338995</v>
       </c>
-      <c r="G19" s="8">
-        <f>G11/SUM(Table14[manufacturing_lead_time])</f>
+      <c r="G21" s="6">
+        <f>G12/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.16838730881535624</v>
       </c>
-      <c r="H19" s="8">
-        <f>H11/SUM(Table14[shipping_times])</f>
+      <c r="H21" s="6">
+        <f>H12/SUM(Table14[shipping_times])</f>
         <v>0.21273835775995467</v>
       </c>
-      <c r="I19" s="8">
-        <f>I11/SUM(Table14[availability])</f>
+      <c r="I21" s="6">
+        <f>I12/SUM(Table14[availability])</f>
         <v>0.18940054995161504</v>
       </c>
-      <c r="J19" s="8">
-        <f>J11/SUM(Table14[stock_levels])</f>
+      <c r="J21" s="6">
+        <f>J12/SUM(Table14[stock_levels])</f>
         <v>0.17536928484619876</v>
       </c>
-      <c r="K19" s="8">
-        <f>K11/SUM(Table14[inspection_results])</f>
+      <c r="K21" s="6">
+        <f>K12/SUM(Table14[inspection_results])</f>
         <v>0.30217338608186112</v>
       </c>
-      <c r="L19" s="8">
-        <f>L11/SUM(Table14[production_volumes])</f>
+      <c r="L21" s="6">
+        <f>L12/SUM(Table14[production_volumes])</f>
         <v>0.23853550295857986</v>
       </c>
-      <c r="M19" s="8">
-        <f>M11/SUM(Table14[order_quantities])</f>
+      <c r="M21" s="6">
+        <f>M12/SUM(Table14[order_quantities])</f>
         <v>0.2962210483543275</v>
       </c>
-      <c r="N19" s="8">
-        <f>N11/SUM(Table14[revenue_generated])</f>
+      <c r="N21" s="6">
+        <f>N12/SUM(Table14[revenue_generated])</f>
         <v>0.27272797921533493</v>
       </c>
-      <c r="O19" s="8">
-        <f>O11/SUM(Table14[number_of_products_sold])</f>
+      <c r="O21" s="6">
+        <f>O12/SUM(Table14[number_of_products_sold])</f>
         <v>0.24035228529903038</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8">
-        <f>B12/SUM(Table14[manufacturing_costs])</f>
+      <c r="B22" s="6">
+        <f>B13/SUM(Table14[manufacturing_costs])</f>
         <v>0.1748928666761411</v>
       </c>
-      <c r="C20" s="8">
-        <f>C12/SUM(Table14[shipping_costs])</f>
+      <c r="C22" s="6">
+        <f>C13/SUM(Table14[shipping_costs])</f>
         <v>0.20801920345258385</v>
       </c>
-      <c r="D20" s="8">
-        <f>D12/SUM(Table14[costs])</f>
+      <c r="D22" s="6">
+        <f>D13/SUM(Table14[costs])</f>
         <v>0.19683735980730466</v>
       </c>
-      <c r="E20" s="8">
-        <f>E12/SUM(Table14[defect_rates])</f>
+      <c r="E22" s="6">
+        <f>E13/SUM(Table14[defect_rates])</f>
         <v>0.20307313326820559</v>
       </c>
-      <c r="F20" s="8">
-        <f>F12/SUM(Table14[lead_times])</f>
+      <c r="F22" s="6">
+        <f>F13/SUM(Table14[lead_times])</f>
         <v>0.20525105407976429</v>
       </c>
-      <c r="G20" s="8">
-        <f>G12/SUM(Table14[manufacturing_lead_time])</f>
+      <c r="G22" s="6">
+        <f>G13/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.20848059721512635</v>
       </c>
-      <c r="H20" s="8">
-        <f>H12/SUM(Table14[shipping_times])</f>
+      <c r="H22" s="6">
+        <f>H13/SUM(Table14[shipping_times])</f>
         <v>0.19263198858377154</v>
       </c>
-      <c r="I20" s="8">
-        <f>I12/SUM(Table14[availability])</f>
+      <c r="I22" s="6">
+        <f>I13/SUM(Table14[availability])</f>
         <v>0.16195169275395632</v>
       </c>
-      <c r="J20" s="8">
-        <f>J12/SUM(Table14[stock_levels])</f>
+      <c r="J22" s="6">
+        <f>J13/SUM(Table14[stock_levels])</f>
         <v>0.19261025494144124</v>
       </c>
-      <c r="K20" s="8">
-        <f>K12/SUM(Table14[inspection_results])</f>
+      <c r="K22" s="6">
+        <f>K13/SUM(Table14[inspection_results])</f>
         <v>0.20723923416735165</v>
       </c>
-      <c r="L20" s="8">
-        <f>L12/SUM(Table14[production_volumes])</f>
+      <c r="L22" s="6">
+        <f>L13/SUM(Table14[production_volumes])</f>
         <v>0.2483974358974359</v>
       </c>
-      <c r="M20" s="8">
-        <f>M12/SUM(Table14[order_quantities])</f>
+      <c r="M22" s="6">
+        <f>M13/SUM(Table14[order_quantities])</f>
         <v>0.20763917106867125</v>
       </c>
-      <c r="N20" s="8">
-        <f>N12/SUM(Table14[revenue_generated])</f>
+      <c r="N22" s="6">
+        <f>N13/SUM(Table14[revenue_generated])</f>
         <v>0.21722017290939058</v>
       </c>
-      <c r="O20" s="8">
-        <f>O12/SUM(Table14[number_of_products_sold])</f>
+      <c r="O22" s="6">
+        <f>O13/SUM(Table14[number_of_products_sold])</f>
         <v>0.24009197596477147</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8">
-        <f>B13/SUM(Table14[manufacturing_costs])</f>
+      <c r="B23" s="6">
+        <f>B14/SUM(Table14[manufacturing_costs])</f>
         <v>0.18334540114431269</v>
       </c>
-      <c r="C21" s="8">
-        <f>C13/SUM(Table14[shipping_costs])</f>
+      <c r="C23" s="6">
+        <f>C14/SUM(Table14[shipping_costs])</f>
         <v>0.17357123970397614</v>
       </c>
-      <c r="D21" s="8">
-        <f>D13/SUM(Table14[costs])</f>
+      <c r="D23" s="6">
+        <f>D14/SUM(Table14[costs])</f>
         <v>0.17916989034079153</v>
       </c>
-      <c r="E21" s="8">
-        <f>E13/SUM(Table14[defect_rates])</f>
+      <c r="E23" s="6">
+        <f>E14/SUM(Table14[defect_rates])</f>
         <v>0.21192883908769908</v>
       </c>
-      <c r="F21" s="8">
-        <f>F13/SUM(Table14[lead_times])</f>
+      <c r="F23" s="6">
+        <f>F14/SUM(Table14[lead_times])</f>
         <v>0.18129551548241699</v>
       </c>
-      <c r="G21" s="8">
-        <f>G13/SUM(Table14[manufacturing_lead_time])</f>
+      <c r="G23" s="6">
+        <f>G14/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.19968753797992619</v>
       </c>
-      <c r="H21" s="8">
-        <f>H13/SUM(Table14[shipping_times])</f>
+      <c r="H23" s="6">
+        <f>H14/SUM(Table14[shipping_times])</f>
         <v>0.18212478920647493</v>
       </c>
-      <c r="I21" s="8">
-        <f>I13/SUM(Table14[availability])</f>
+      <c r="I23" s="6">
+        <f>I14/SUM(Table14[availability])</f>
         <v>0.19970950244616764</v>
       </c>
-      <c r="J21" s="8">
-        <f>J13/SUM(Table14[stock_levels])</f>
+      <c r="J23" s="6">
+        <f>J14/SUM(Table14[stock_levels])</f>
         <v>0.18077471287466526</v>
       </c>
-      <c r="K21" s="8">
-        <f>K13/SUM(Table14[inspection_results])</f>
+      <c r="K23" s="6">
+        <f>K14/SUM(Table14[inspection_results])</f>
         <v>0.22396380376797315</v>
       </c>
-      <c r="L21" s="8">
-        <f>L13/SUM(Table14[production_volumes])</f>
+      <c r="L23" s="6">
+        <f>L14/SUM(Table14[production_volumes])</f>
         <v>0.14083192448577064</v>
       </c>
-      <c r="M21" s="8">
-        <f>M13/SUM(Table14[order_quantities])</f>
+      <c r="M23" s="6">
+        <f>M14/SUM(Table14[order_quantities])</f>
         <v>0.12840308817553839</v>
       </c>
-      <c r="N21" s="8">
-        <f>N13/SUM(Table14[revenue_generated])</f>
+      <c r="N23" s="6">
+        <f>N14/SUM(Table14[revenue_generated])</f>
         <v>0.16931295665665383</v>
       </c>
-      <c r="O21" s="8">
-        <f>O13/SUM(Table14[number_of_products_sold])</f>
+      <c r="O23" s="6">
+        <f>O14/SUM(Table14[number_of_products_sold])</f>
         <v>0.17534002906787569</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="8">
-        <f>B14/SUM(Table14[manufacturing_costs])</f>
+      <c r="B24" s="6">
+        <f>B15/SUM(Table14[manufacturing_costs])</f>
         <v>0.26349883268599017</v>
       </c>
-      <c r="C22" s="8">
-        <f>C14/SUM(Table14[shipping_costs])</f>
+      <c r="C24" s="6">
+        <f>C15/SUM(Table14[shipping_costs])</f>
         <v>0.20875842668623706</v>
       </c>
-      <c r="D22" s="8">
-        <f>D14/SUM(Table14[costs])</f>
+      <c r="D24" s="6">
+        <f>D15/SUM(Table14[costs])</f>
         <v>0.19942981027719478</v>
       </c>
-      <c r="E22" s="8">
-        <f>E14/SUM(Table14[defect_rates])</f>
+      <c r="E24" s="6">
+        <f>E15/SUM(Table14[defect_rates])</f>
         <v>0.20089412116575295</v>
       </c>
-      <c r="F22" s="8">
-        <f>F14/SUM(Table14[lead_times])</f>
+      <c r="F24" s="6">
+        <f>F15/SUM(Table14[lead_times])</f>
         <v>0.21502491376170965</v>
       </c>
-      <c r="G22" s="8">
-        <f>G14/SUM(Table14[manufacturing_lead_time])</f>
+      <c r="G24" s="6">
+        <f>G15/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.20503631131986813</v>
       </c>
-      <c r="H22" s="8">
-        <f>H14/SUM(Table14[shipping_times])</f>
+      <c r="H24" s="6">
+        <f>H15/SUM(Table14[shipping_times])</f>
         <v>0.19457776626180007</v>
       </c>
-      <c r="I22" s="8">
-        <f>I14/SUM(Table14[availability])</f>
+      <c r="I24" s="6">
+        <f>I15/SUM(Table14[availability])</f>
         <v>0.23648616150041468</v>
       </c>
-      <c r="J22" s="8">
-        <f>J14/SUM(Table14[stock_levels])</f>
+      <c r="J24" s="6">
+        <f>J15/SUM(Table14[stock_levels])</f>
         <v>0.24439598667884541</v>
       </c>
-      <c r="K22" s="8">
-        <f>K14/SUM(Table14[inspection_results])</f>
+      <c r="K24" s="6">
+        <f>K15/SUM(Table14[inspection_results])</f>
         <v>7.9987072722855851E-2</v>
       </c>
-      <c r="L22" s="8">
-        <f>L14/SUM(Table14[production_volumes])</f>
+      <c r="L24" s="6">
+        <f>L15/SUM(Table14[production_volumes])</f>
         <v>0.20703014933784164</v>
       </c>
-      <c r="M22" s="8">
-        <f>M14/SUM(Table14[order_quantities])</f>
+      <c r="M24" s="6">
+        <f>M15/SUM(Table14[order_quantities])</f>
         <v>0.17106867127184069</v>
       </c>
-      <c r="N22" s="8">
-        <f>N14/SUM(Table14[revenue_generated])</f>
+      <c r="N24" s="6">
+        <f>N15/SUM(Table14[revenue_generated])</f>
         <v>0.14970263230944872</v>
       </c>
-      <c r="O22" s="8">
-        <f>O14/SUM(Table14[number_of_products_sold])</f>
+      <c r="O24" s="6">
+        <f>O15/SUM(Table14[number_of_products_sold])</f>
         <v>0.15631575522245603</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="8">
-        <f>B15/SUM(Table14[manufacturing_costs])</f>
+      <c r="B25" s="6">
+        <f>B16/SUM(Table14[manufacturing_costs])</f>
         <v>0.18811084597946093</v>
       </c>
-      <c r="C23" s="8">
-        <f>C15/SUM(Table14[shipping_costs])</f>
+      <c r="C25" s="6">
+        <f>C16/SUM(Table14[shipping_costs])</f>
         <v>0.20985516225531062</v>
       </c>
-      <c r="D23" s="8">
-        <f>D15/SUM(Table14[costs])</f>
+      <c r="D25" s="6">
+        <f>D16/SUM(Table14[costs])</f>
         <v>0.20486158892737308</v>
       </c>
-      <c r="E23" s="8">
-        <f>E15/SUM(Table14[defect_rates])</f>
+      <c r="E25" s="6">
+        <f>E16/SUM(Table14[defect_rates])</f>
         <v>0.22908593403357894</v>
       </c>
-      <c r="F23" s="8">
-        <f>F15/SUM(Table14[lead_times])</f>
+      <c r="F25" s="6">
+        <f>F16/SUM(Table14[lead_times])</f>
         <v>0.18621438607271917</v>
       </c>
-      <c r="G23" s="8">
-        <f>G15/SUM(Table14[manufacturing_lead_time])</f>
+      <c r="G25" s="6">
+        <f>G16/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.21840824466972297</v>
       </c>
-      <c r="H23" s="8">
-        <f>H15/SUM(Table14[shipping_times])</f>
+      <c r="H25" s="6">
+        <f>H16/SUM(Table14[shipping_times])</f>
         <v>0.21792709818799882</v>
       </c>
-      <c r="I23" s="8">
-        <f>I15/SUM(Table14[availability])</f>
+      <c r="I25" s="6">
+        <f>I16/SUM(Table14[availability])</f>
         <v>0.21245209334784626</v>
       </c>
-      <c r="J23" s="8">
-        <f>J15/SUM(Table14[stock_levels])</f>
+      <c r="J25" s="6">
+        <f>J16/SUM(Table14[stock_levels])</f>
         <v>0.20684976065884925</v>
       </c>
-      <c r="K23" s="8">
-        <f>K15/SUM(Table14[inspection_results])</f>
+      <c r="K25" s="6">
+        <f>K16/SUM(Table14[inspection_results])</f>
         <v>0.18663650325995823</v>
       </c>
-      <c r="L23" s="8">
-        <f>L15/SUM(Table14[production_volumes])</f>
+      <c r="L25" s="6">
+        <f>L16/SUM(Table14[production_volumes])</f>
         <v>0.16520498732037195</v>
       </c>
-      <c r="M23" s="8">
-        <f>M15/SUM(Table14[order_quantities])</f>
+      <c r="M25" s="6">
+        <f>M16/SUM(Table14[order_quantities])</f>
         <v>0.19666802112962209</v>
       </c>
-      <c r="N23" s="8">
-        <f>N15/SUM(Table14[revenue_generated])</f>
+      <c r="N25" s="6">
+        <f>N16/SUM(Table14[revenue_generated])</f>
         <v>0.19103625890917197</v>
       </c>
-      <c r="O23" s="8">
-        <f>O15/SUM(Table14[number_of_products_sold])</f>
+      <c r="O25" s="6">
+        <f>O16/SUM(Table14[number_of_products_sold])</f>
         <v>0.18789995444586652</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="12" cm="1">
-        <f t="array" ref="B25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(B19:B23, LN(B19:B23))</f>
+      <c r="B27" s="9" cm="1">
+        <f t="array" ref="B27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(B21:B25, LN(B21:B25))</f>
         <v>0.99246747941383806</v>
       </c>
-      <c r="C25" s="12" cm="1">
-        <f t="array" ref="C25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(C19:C23, LN(C19:C23))</f>
+      <c r="C27" s="9" cm="1">
+        <f t="array" ref="C27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(C21:C25, LN(C21:C25))</f>
         <v>0.99849925324789324</v>
       </c>
-      <c r="D25" s="12" cm="1">
-        <f t="array" ref="D25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(D19:D23, LN(D19:D23))</f>
+      <c r="D27" s="9" cm="1">
+        <f t="array" ref="D27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(D21:D25, LN(D21:D25))</f>
         <v>0.99866473270691924</v>
       </c>
-      <c r="E25" s="12" cm="1">
-        <f t="array" ref="E25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(E19:E23, LN(E19:E23))</f>
+      <c r="E27" s="9" cm="1">
+        <f t="array" ref="E27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(E21:E25, LN(E21:E25))</f>
         <v>0.99510338663359355</v>
       </c>
-      <c r="F25" s="12" cm="1">
-        <f t="array" ref="F25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(F19:F23, LN(F19:F23))</f>
+      <c r="F27" s="9" cm="1">
+        <f t="array" ref="F27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(F21:F25, LN(F21:F25))</f>
         <v>0.99852472958669147</v>
       </c>
-      <c r="G25" s="12" cm="1">
-        <f t="array" ref="G25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(G19:G23, LN(G19:G23))</f>
+      <c r="G27" s="9" cm="1">
+        <f t="array" ref="G27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(G21:G25, LN(G21:G25))</f>
         <v>0.99769839398785143</v>
       </c>
-      <c r="H25" s="12" cm="1">
-        <f t="array" ref="H25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(H19:H23, LN(H19:H23))</f>
+      <c r="H27" s="9" cm="1">
+        <f t="array" ref="H27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(H21:H25, LN(H21:H25))</f>
         <v>0.99862492013012349</v>
       </c>
-      <c r="I25" s="12" cm="1">
-        <f t="array" ref="I25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(I19:I23, LN(I19:I23))</f>
+      <c r="I27" s="9" cm="1">
+        <f t="array" ref="I27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(I21:I25, LN(I21:I25))</f>
         <v>0.99522704988672073</v>
       </c>
-      <c r="J25" s="12" cm="1">
-        <f t="array" ref="J25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(J19:J23, LN(J19:J23))</f>
+      <c r="J27" s="9" cm="1">
+        <f t="array" ref="J27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(J21:J25, LN(J21:J25))</f>
         <v>0.99540763846788216</v>
       </c>
-      <c r="K25" s="12" cm="1">
-        <f t="array" ref="K25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(K19:K23, LN(K19:K23))</f>
+      <c r="K27" s="9" cm="1">
+        <f t="array" ref="K27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(K21:K25, LN(K21:K25))</f>
         <v>0.95575788115496996</v>
       </c>
-      <c r="L25" s="12" cm="1">
-        <f t="array" ref="L25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(L19:L23, LN(L19:L23))</f>
+      <c r="L27" s="9" cm="1">
+        <f t="array" ref="L27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(L21:L25, LN(L21:L25))</f>
         <v>0.98630528778140192</v>
       </c>
-      <c r="M25" s="12" cm="1">
-        <f t="array" ref="M25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(M19:M23, LN(M19:M23))</f>
+      <c r="M27" s="9" cm="1">
+        <f t="array" ref="M27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(M21:M25, LN(M21:M25))</f>
         <v>0.97688595060643746</v>
       </c>
-      <c r="N25" s="12" cm="1">
-        <f t="array" ref="N25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(N19:N23, LN(N19:N23))</f>
+      <c r="N27" s="9" cm="1">
+        <f t="array" ref="N27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(N21:N25, LN(N21:N25))</f>
         <v>0.98620394901094111</v>
       </c>
-      <c r="O25" s="12" cm="1">
-        <f t="array" ref="O25" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(O19:O23, LN(O19:O23))</f>
+      <c r="O27" s="9" cm="1">
+        <f t="array" ref="O27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(O21:O25, LN(O21:O25))</f>
         <v>0.99085513714639883</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12">
-        <f>1-B25</f>
+      <c r="B28" s="9">
+        <f>1-B27</f>
         <v>7.5325205861619393E-3</v>
       </c>
-      <c r="C26" s="12">
-        <f t="shared" ref="C26:O26" si="0">1-C25</f>
+      <c r="C28" s="9">
+        <f t="shared" ref="C28:O28" si="0">1-C27</f>
         <v>1.500746752106763E-3</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>1.3352672930807552E-3</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>4.8966133664064548E-3</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>1.475270413308527E-3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
         <v>2.3016060121485715E-3</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>1.3750798698765054E-3</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I28" s="9">
         <f t="shared" si="0"/>
         <v>4.7729501132792729E-3</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
         <v>4.592361532117839E-3</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K28" s="9">
         <f t="shared" si="0"/>
         <v>4.4242118845030043E-2</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L28" s="9">
         <f t="shared" si="0"/>
         <v>1.3694712218598082E-2</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M28" s="9">
         <f t="shared" si="0"/>
         <v>2.3114049393562541E-2</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N28" s="9">
         <f t="shared" si="0"/>
         <v>1.3796050989058894E-2</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O28" s="9">
         <f t="shared" si="0"/>
         <v>9.1448628536011656E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="12">
-        <f t="shared" ref="B27:O27" si="1">B26 / SUM($B$26:$O$26)</f>
+      <c r="B29" s="9">
+        <f t="shared" ref="B29:O29" si="1">B28 / SUM($B$28:$O$28)</f>
         <v>5.630771860092993E-2</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C29" s="9">
         <f t="shared" si="1"/>
         <v>1.1218505789964852E-2</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D29" s="9">
         <f t="shared" si="1"/>
         <v>9.9815001015650991E-3</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E29" s="9">
         <f t="shared" si="1"/>
         <v>3.6603567740616502E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F29" s="9">
         <f t="shared" si="1"/>
         <v>1.1028062962809705E-2</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G29" s="9">
         <f t="shared" si="1"/>
         <v>1.7205154925212719E-2</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H29" s="9">
         <f t="shared" si="1"/>
         <v>1.0279110356372948E-2</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I29" s="9">
         <f t="shared" si="1"/>
         <v>3.5679150000404405E-2</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J29" s="9">
         <f t="shared" si="1"/>
         <v>3.4329199357154928E-2</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K29" s="9">
         <f t="shared" si="1"/>
         <v>0.33072233254979833</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L29" s="9">
         <f t="shared" si="1"/>
         <v>0.1023718412853946</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M29" s="9">
         <f t="shared" si="1"/>
         <v>0.17278404673353442</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N29" s="9">
         <f t="shared" si="1"/>
         <v>0.10312937721313631</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>6.8360432383105241E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:15" s="30" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:15" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I33" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O33" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="8">
-        <f t="shared" ref="B31:B34" si="2">B11*$B$27</f>
+      <c r="B34" s="6">
+        <f t="shared" ref="B34:B37" si="2">B12*$B$29</f>
         <v>2.3637599243487923E-2</v>
       </c>
-      <c r="C31" s="8">
-        <f t="shared" ref="C31:C35" si="3">C11*$C$27</f>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:C38" si="3">C12*$C$29</f>
         <v>5.0002548897584969E-3</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" ref="D31:D35" si="4">D11*$D$27</f>
+      <c r="D34" s="6">
+        <f t="shared" ref="D34:D38" si="4">D12*$D$29</f>
         <v>4.8931230629706687E-3</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" ref="E31:E35" si="5">E11*$E$27</f>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:E38" si="5">E12*$E$29</f>
         <v>1.2593139380131303E-2</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" ref="F31:F35" si="6">F11*$F$27</f>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F38" si="6">F12*$F$29</f>
         <v>5.2208081578089035E-3</v>
       </c>
-      <c r="G31" s="8">
-        <f t="shared" ref="G31:G35" si="7">G11*$G$27</f>
+      <c r="G34" s="6">
+        <f t="shared" ref="G34:G38" si="7">G12*$G$29</f>
         <v>6.4550531341195727E-3</v>
       </c>
-      <c r="H31" s="8">
-        <f t="shared" ref="H31:H35" si="8">H11*$H$27</f>
+      <c r="H34" s="6">
+        <f t="shared" ref="H34:H38" si="8">H12*$H$29</f>
         <v>4.8789410185984912E-3</v>
       </c>
-      <c r="I31" s="8">
-        <f t="shared" ref="I31:I35" si="9">I11*$I$27</f>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34:I38" si="9">I12*$I$29</f>
         <v>1.4996782300330448E-2</v>
       </c>
-      <c r="J31" s="8">
-        <f t="shared" ref="J31:J35" si="10">J11*$J$27</f>
+      <c r="J34" s="6">
+        <f t="shared" ref="J34:J38" si="10">J12*$J$29</f>
         <v>1.3360323560837321E-2</v>
       </c>
-      <c r="K31" s="8">
-        <f t="shared" ref="K31:K35" si="11">K11*$K$27</f>
+      <c r="K34" s="6">
+        <f t="shared" ref="K34:K38" si="11">K12*$K$29</f>
         <v>0.21037988971591842</v>
       </c>
-      <c r="L31" s="8">
-        <f t="shared" ref="L31:L35" si="12">L11*$L$27</f>
+      <c r="L34" s="6">
+        <f t="shared" ref="L34:L38" si="12">L12*$L$29</f>
         <v>5.3467342274416768E-2</v>
       </c>
-      <c r="M31" s="8">
-        <f t="shared" ref="M31:M35" si="13">M11*$M$27</f>
+      <c r="M34" s="6">
+        <f t="shared" ref="M34:M38" si="13">M12*$M$29</f>
         <v>0.11030787769395543</v>
       </c>
-      <c r="N31" s="8">
-        <f t="shared" ref="N31:N35" si="14">N11*$N$27</f>
+      <c r="N34" s="6">
+        <f t="shared" ref="N34:N38" si="14">N12*$N$29</f>
         <v>6.1502937886594382E-2</v>
       </c>
-      <c r="O31" s="8">
-        <f t="shared" ref="O31:O35" si="15">O11*$O$27</f>
+      <c r="O34" s="6">
+        <f t="shared" ref="O34:O38" si="15">O12*$O$29</f>
         <v>3.6209827243030034E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B35" s="6">
         <f t="shared" si="2"/>
         <v>2.1740745980053003E-2</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C35" s="6">
         <f t="shared" si="3"/>
         <v>5.2060562089931844E-3</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D35" s="6">
         <f t="shared" si="4"/>
         <v>4.3839030670021839E-3</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E35" s="6">
         <f t="shared" si="5"/>
         <v>1.6496979229409837E-2</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F35" s="6">
         <f t="shared" si="6"/>
         <v>5.0495053015163936E-3</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G35" s="6">
         <f t="shared" si="7"/>
         <v>7.9920116422330656E-3</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H35" s="6">
         <f t="shared" si="8"/>
         <v>4.4178215931140949E-3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I35" s="6">
         <f t="shared" si="9"/>
         <v>1.2823375011432362E-2</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J35" s="6">
         <f t="shared" si="10"/>
         <v>1.4673808639921581E-2</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K35" s="6">
         <f t="shared" si="11"/>
         <v>0.14428460359883427</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L35" s="6">
         <f t="shared" si="12"/>
         <v>5.5677878389121346E-2</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M35" s="6">
         <f t="shared" si="13"/>
         <v>7.7321434158588775E-2</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N35" s="6">
         <f t="shared" si="14"/>
         <v>4.8985362046822786E-2</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O35" s="6">
         <f t="shared" si="15"/>
         <v>3.6170610823633251E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B36" s="6">
         <f t="shared" si="2"/>
         <v>2.2791471537090432E-2</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C36" s="6">
         <f t="shared" si="3"/>
         <v>4.3439337098005095E-3</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D36" s="6">
         <f t="shared" si="4"/>
         <v>3.9904184477396777E-3</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E36" s="6">
         <f t="shared" si="5"/>
         <v>1.7216387024103184E-2</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F36" s="6">
         <f t="shared" si="6"/>
         <v>4.4601606100100732E-3</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G36" s="6">
         <f t="shared" si="7"/>
         <v>7.6549335989173593E-3</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H36" s="6">
         <f t="shared" si="8"/>
         <v>4.1768495062169632E-3</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I36" s="6">
         <f t="shared" si="9"/>
         <v>1.5813047703703082E-2</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J36" s="6">
         <f t="shared" si="10"/>
         <v>1.3772130380420739E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K36" s="6">
         <f t="shared" si="11"/>
         <v>0.15592862411880076</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L36" s="6">
         <f t="shared" si="12"/>
         <v>3.1567245195165079E-2</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M36" s="6">
         <f t="shared" si="13"/>
         <v>4.7815211730164495E-2</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N36" s="6">
         <f t="shared" si="14"/>
         <v>3.8181796699442973E-2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O36" s="6">
         <f t="shared" si="15"/>
         <v>2.6415526498683371E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="37" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B37" s="6">
         <f t="shared" si="2"/>
         <v>3.2755259241502868E-2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C37" s="6">
         <f t="shared" si="3"/>
         <v>5.2245566053100547E-3</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D37" s="6">
         <f t="shared" si="4"/>
         <v>4.4416413519351283E-3</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E37" s="6">
         <f t="shared" si="5"/>
         <v>1.6319963605450773E-2</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F37" s="6">
         <f t="shared" si="6"/>
         <v>5.2899579340328672E-3</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G37" s="6">
         <f t="shared" si="7"/>
         <v>7.8599764632198421E-3</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H37" s="6">
         <f t="shared" si="8"/>
         <v>4.4624460540075963E-3</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I37" s="6">
         <f t="shared" si="9"/>
         <v>1.8725032646254285E-2</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J37" s="6">
         <f t="shared" si="10"/>
         <v>1.8619049863053815E-2</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K37" s="6">
         <f t="shared" si="11"/>
         <v>5.5688794292343184E-2</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L37" s="6">
         <f t="shared" si="12"/>
         <v>4.6405468865119502E-2</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M37" s="6">
         <f t="shared" si="13"/>
         <v>6.3703177653162191E-2</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N37" s="6">
         <f t="shared" si="14"/>
         <v>3.3759468767662115E-2</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O37" s="6">
         <f t="shared" si="15"/>
         <v>2.3549459847768447E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="38" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="8">
-        <f>B15*$B$27</f>
+      <c r="B38" s="6">
+        <f>B16*$B$29</f>
         <v>2.3383858908925116E-2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C38" s="6">
         <f t="shared" si="3"/>
         <v>5.2520043934191967E-3</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D38" s="6">
         <f t="shared" si="4"/>
         <v>4.5626163086562761E-3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E38" s="6">
         <f t="shared" si="5"/>
         <v>1.8610171787277009E-2</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F38" s="6">
         <f t="shared" si="6"/>
         <v>4.5811727199578812E-3</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G38" s="6">
         <f t="shared" si="7"/>
         <v>8.3725836239760508E-3</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H38" s="6">
         <f t="shared" si="8"/>
         <v>4.9979395799101753E-3</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I38" s="6">
         <f t="shared" si="9"/>
         <v>1.6822009196916614E-2</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J38" s="6">
         <f t="shared" si="10"/>
         <v>1.5758630328610173E-2</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K38" s="6">
         <f t="shared" si="11"/>
         <v>0.12994052018253383</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L38" s="6">
         <f t="shared" si="12"/>
         <v>3.7030427307220656E-2</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M38" s="6">
         <f t="shared" si="13"/>
         <v>7.3235957206960814E-2</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N38" s="6">
         <f t="shared" si="14"/>
         <v>4.308062267605263E-2</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O38" s="6">
         <f t="shared" si="15"/>
         <v>2.8307718734578172E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:15" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+    <row r="39" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:15" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+    <row r="42" spans="1:15" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="17" t="s">
+      <c r="N43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O43" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B44" s="9">
         <f>MIN(Table79[manufacturing_costs])</f>
         <v>2.1740745980053003E-2</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C44" s="9">
         <f>MIN(Table79[shipping_costs])</f>
         <v>4.3439337098005095E-3</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D44" s="9">
         <f>MIN(Table79[costs])</f>
         <v>3.9904184477396777E-3</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E44" s="9">
         <f>MAX(Table79[defect_rates])</f>
         <v>1.8610171787277009E-2</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F44" s="9">
         <f>MIN(Table79[lead_times])</f>
         <v>4.4601606100100732E-3</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G44" s="9">
         <f>MIN(Table79[manufacturing_lead_time])</f>
         <v>6.4550531341195727E-3</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H44" s="9">
         <f>MIN(Table79[shipping_times])</f>
         <v>4.1768495062169632E-3</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I44" s="9">
         <f>MAX(Table79[availability])</f>
         <v>1.8725032646254285E-2</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J44" s="9">
         <f>MAX(Table79[stock_levels])</f>
         <v>1.8619049863053815E-2</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K44" s="9">
         <f>MAX(Table79[inspection_results])</f>
         <v>0.21037988971591842</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L44" s="9">
         <f>MAX(Table79[production_volumes])</f>
         <v>5.5677878389121346E-2</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M44" s="9">
         <f>MAX(Table79[order_quantities])</f>
         <v>0.11030787769395543</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N44" s="9">
         <f>MAX(Table79[revenue_generated])</f>
         <v>6.1502937886594382E-2</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O44" s="13">
         <f>MAX(Table79[number_of_products_sold])</f>
         <v>3.6209827243030034E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B45" s="15">
         <f>MAX(Table79[manufacturing_costs])</f>
         <v>3.2755259241502868E-2</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C45" s="15">
         <f>MAX(Table79[shipping_costs])</f>
         <v>5.2520043934191967E-3</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D45" s="15">
         <f>MAX(Table79[costs])</f>
         <v>4.8931230629706687E-3</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E45" s="15">
         <f>MIN(Table79[defect_rates])</f>
         <v>1.2593139380131303E-2</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F45" s="15">
         <f>MAX(Table79[lead_times])</f>
         <v>5.2899579340328672E-3</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G45" s="15">
         <f>MAX(Table79[manufacturing_lead_time])</f>
         <v>8.3725836239760508E-3</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H45" s="15">
         <f>MAX(Table79[shipping_times])</f>
         <v>4.9979395799101753E-3</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I45" s="15">
         <f>MIN(Table79[availability])</f>
         <v>1.2823375011432362E-2</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J45" s="15">
         <f>MIN(Table79[stock_levels])</f>
         <v>1.3360323560837321E-2</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K45" s="15">
         <f>MIN(Table79[inspection_results])</f>
         <v>5.5688794292343184E-2</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L45" s="15">
         <f>MIN(Table79[production_volumes])</f>
         <v>3.1567245195165079E-2</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M45" s="15">
         <f>MIN(Table79[order_quantities])</f>
         <v>4.7815211730164495E-2</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N45" s="15">
         <f>MIN(Table79[revenue_generated])</f>
         <v>3.3759468767662115E-2</v>
       </c>
-      <c r="O41" s="23">
+      <c r="O45" s="16">
         <f>MIN(Table79[number_of_products_sold])</f>
         <v>2.3549459847768447E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C48" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="26" cm="1">
-        <f t="array" ref="B45">SQRT(SUMPRODUCT((B31:O31 - $B$40:$O$40)^2))</f>
+      <c r="B49" s="19" cm="1">
+        <f t="array" ref="B49">SQRT(SUMPRODUCT((B34:O34 - $B$44:$O$44)^2))</f>
         <v>9.4106537746808366E-3</v>
       </c>
-      <c r="C45" s="26" cm="1">
-        <f t="array" ref="C45">SQRT(SUMPRODUCT((B31:O31 - $B$41:$O$41)^2))</f>
+      <c r="C49" s="19" cm="1">
+        <f t="array" ref="C49">SQRT(SUMPRODUCT((B34:O34 - $B$45:$O$45)^2))</f>
         <v>0.17127720864857798</v>
       </c>
-      <c r="D45" s="26">
-        <f>C45 / (B45 + C45)</f>
+      <c r="D49" s="19">
+        <f>C49 / (B49 + C49)</f>
         <v>0.94791762076062136</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E49" s="22">
         <v>1</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="26" cm="1">
-        <f t="array" ref="B46">SQRT(SUMPRODUCT((B32:O32 - $B$40:$O$40)^2))</f>
+      <c r="B50" s="19" cm="1">
+        <f t="array" ref="B50">SQRT(SUMPRODUCT((B35:O35 - $B$44:$O$44)^2))</f>
         <v>7.5312079657210748E-2</v>
       </c>
-      <c r="C46" s="26" cm="1">
-        <f t="array" ref="C46">SQRT(SUMPRODUCT((B32:O32 - $B$41:$O$41)^2))</f>
+      <c r="C50" s="19" cm="1">
+        <f t="array" ref="C50">SQRT(SUMPRODUCT((B35:O35 - $B$45:$O$45)^2))</f>
         <v>9.9153234018936665E-2</v>
       </c>
-      <c r="D46" s="26">
-        <f>C46 / (B46 + C46)</f>
+      <c r="D50" s="19">
+        <f>C50 / (B50 + C50)</f>
         <v>0.56832634481711719</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E50" s="22">
         <v>2</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="26" cm="1">
-        <f t="array" ref="B47">SQRT(SUMPRODUCT((B33:O33 - $B$40:$O$40)^2))</f>
+      <c r="B51" s="19" cm="1">
+        <f t="array" ref="B51">SQRT(SUMPRODUCT((B36:O36 - $B$44:$O$44)^2))</f>
         <v>9.0154638642800364E-2</v>
       </c>
-      <c r="C47" s="26" cm="1">
-        <f t="array" ref="C47">SQRT(SUMPRODUCT((B33:O33 - $B$41:$O$41)^2))</f>
+      <c r="C51" s="19" cm="1">
+        <f t="array" ref="C51">SQRT(SUMPRODUCT((B36:O36 - $B$45:$O$45)^2))</f>
         <v>0.10103994883181538</v>
       </c>
-      <c r="D47" s="26">
-        <f>C47 / (B47 + C47)</f>
+      <c r="D51" s="19">
+        <f>C51 / (B51 + C51)</f>
         <v>0.52846657515987527</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E51" s="22">
         <v>3</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="26" cm="1">
-        <f t="array" ref="B48">SQRT(SUMPRODUCT((B34:O34 - $B$40:$O$40)^2))</f>
+      <c r="B52" s="19" cm="1">
+        <f t="array" ref="B52">SQRT(SUMPRODUCT((B37:O37 - $B$44:$O$44)^2))</f>
         <v>0.16506841982099046</v>
       </c>
-      <c r="C48" s="26" cm="1">
-        <f t="array" ref="C48">SQRT(SUMPRODUCT((B34:O34 - $B$41:$O$41)^2))</f>
+      <c r="C52" s="19" cm="1">
+        <f t="array" ref="C52">SQRT(SUMPRODUCT((B37:O37 - $B$45:$O$45)^2))</f>
         <v>2.3446266981134736E-2</v>
       </c>
-      <c r="D48" s="26">
-        <f>C48 / (B48 + C48)</f>
+      <c r="D52" s="19">
+        <f>C52 / (B52 + C52)</f>
         <v>0.12437368875001849</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E52" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="28" cm="1">
-        <f t="array" ref="B49">SQRT(SUMPRODUCT((B35:O35 - $B$40:$O$40)^2))</f>
+      <c r="B53" s="21" cm="1">
+        <f t="array" ref="B53">SQRT(SUMPRODUCT((B38:O38 - $B$44:$O$44)^2))</f>
         <v>9.2813754287858138E-2</v>
       </c>
-      <c r="C49" s="28" cm="1">
-        <f t="array" ref="C49">SQRT(SUMPRODUCT((B35:O35 - $B$41:$O$41)^2))</f>
+      <c r="C53" s="21" cm="1">
+        <f t="array" ref="C53">SQRT(SUMPRODUCT((B38:O38 - $B$45:$O$45)^2))</f>
         <v>8.0282530976255623E-2</v>
       </c>
-      <c r="D49" s="28">
-        <f>C49 / (B49 + C49)</f>
+      <c r="D53" s="21">
+        <f>C53 / (B53 + C53)</f>
         <v>0.46380273761368679</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E53" s="24">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:XFD38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:XFD42"/>
+    <mergeCell ref="A8:XFD9"/>
+    <mergeCell ref="A17:XFD18"/>
+    <mergeCell ref="A30:XFD31"/>
+    <mergeCell ref="A39:XFD40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tools/manipulation.xlsx
+++ b/tools/manipulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\dss\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF17CDB-3E39-4719-B7F2-B6438298BBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CECB93-EDF3-4C9B-A7C3-6DB310DCCF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Entropy cho từng cột</t>
   </si>
   <si>
-    <t>Tính Entropy (E_j) cho từng tiêu chí:</t>
-  </si>
-  <si>
     <t>Độ sai biệt</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Tính Entropy cho từng tiêu chí:</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,6 +588,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -605,13 +612,6 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1142,6 +1142,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1175,13 +1182,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -2061,7 +2061,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
   <autoFilter ref="A43:O45" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="   " dataDxfId="24"/>
@@ -2113,7 +2113,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
   <autoFilter ref="A48:E53" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:E53">
     <sortCondition descending="1" ref="D48:D53"/>
@@ -2423,7 +2423,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2466,10 +2466,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,7 +2676,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>45.254027200000003</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>41.622514189999997</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>43.634121309999998</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>62.709726879999998</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>44.768243009999999</v>
@@ -2923,7 +2923,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="B41" sqref="B41:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5">
         <v>45.254027200000003</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>41.622514189999997</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>43.634121309999998</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>62.709726879999998</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>44.768243009999999</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <f>B3/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <f>B4/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <f>B5/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <f>B6/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <f>B7/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
@@ -3606,7 +3606,7 @@
     <row r="18" spans="1:15" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -3658,7 +3658,7 @@
     </row>
     <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6">
         <f>B12/SUM(Table14[manufacturing_costs])</f>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6">
         <f>B13/SUM(Table14[manufacturing_costs])</f>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6">
         <f>B14/SUM(Table14[manufacturing_costs])</f>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6">
         <f>B15/SUM(Table14[manufacturing_costs])</f>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6">
         <f>B16/SUM(Table14[manufacturing_costs])</f>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="28" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="9">
         <f>1-B27</f>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="29" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="9">
         <f t="shared" ref="B29:O29" si="1">B28 / SUM($B$28:$O$28)</f>
@@ -4148,7 +4148,7 @@
     <row r="31" spans="1:15" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
@@ -4200,7 +4200,7 @@
     </row>
     <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" ref="B34:B37" si="2">B12*$B$29</f>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="36" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="37" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="38" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="6">
         <f>B16*$B$29</f>
@@ -4507,7 +4507,7 @@
     <row r="40" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:15" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4515,7 +4515,7 @@
     </row>
     <row r="43" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>10</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="9">
         <f>MIN(Table79[manufacturing_costs])</f>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="15">
         <f>MAX(Table79[manufacturing_costs])</f>
@@ -4714,16 +4714,16 @@
         <v>14</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="19" cm="1">
         <f t="array" ref="B49">SQRT(SUMPRODUCT((B34:O34 - $B$44:$O$44)^2))</f>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="19" cm="1">
         <f t="array" ref="B50">SQRT(SUMPRODUCT((B35:O35 - $B$44:$O$44)^2))</f>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="19" cm="1">
         <f t="array" ref="B51">SQRT(SUMPRODUCT((B36:O36 - $B$44:$O$44)^2))</f>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="19" cm="1">
         <f t="array" ref="B52">SQRT(SUMPRODUCT((B37:O37 - $B$44:$O$44)^2))</f>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="21" cm="1">
         <f t="array" ref="B53">SQRT(SUMPRODUCT((B38:O38 - $B$44:$O$44)^2))</f>

--- a/tools/manipulation.xlsx
+++ b/tools/manipulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\dss\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CECB93-EDF3-4C9B-A7C3-6DB310DCCF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B493868B-8812-44D7-B482-8A458C5B5B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -488,6 +488,7 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,30 +589,30 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1142,46 +1143,46 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -2061,7 +2062,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A43:O45" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="   " dataDxfId="24"/>
@@ -2113,7 +2114,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A48:E53" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:E53">
     <sortCondition descending="1" ref="D48:D53"/>
@@ -2922,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4682,33 +4683,8 @@
         <v>2.3549459847768447E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-    </row>
+    <row r="46" spans="1:15" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:15" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>14</v>

--- a/tools/manipulation.xlsx
+++ b/tools/manipulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Dev\_Project\dss\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B493868B-8812-44D7-B482-8A458C5B5B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2A6EB5-D856-4C36-A688-0B42E2C257D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -408,67 +408,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,144 +420,93 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -629,25 +518,9 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -661,6 +534,76 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -678,516 +621,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1199,650 +638,1216 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1882,50 +1887,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}" name="Table14" displayName="Table14" ref="A11:O16" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}" name="Table14" displayName="Table14" ref="A11:O16" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A11:O16" xr:uid="{0C312E2C-2FB1-4AB0-9EB5-7129FFBBE5B2}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0A1D91DF-8A98-4842-BDD2-2E434B1E4483}" name="supplier_name" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{33A2B790-EFE6-431C-AB14-54A89D0492B3}" name="manufacturing_costs" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{0A1D91DF-8A98-4842-BDD2-2E434B1E4483}" name="supplier_name" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{33A2B790-EFE6-431C-AB14-54A89D0492B3}" name="manufacturing_costs" dataDxfId="90">
       <calculatedColumnFormula>B3/SQRT(SUMSQ(Table16[manufacturing_costs]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5A85F90F-CE1C-4DC4-9BE7-708C0AEED098}" name="shipping_costs" dataDxfId="93">
+    <tableColumn id="3" xr3:uid="{5A85F90F-CE1C-4DC4-9BE7-708C0AEED098}" name="shipping_costs" dataDxfId="89">
       <calculatedColumnFormula>C3/SQRT(SUMSQ(Table16[shipping_costs]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8431E0DC-20C5-440B-87E0-6DD54B935E4A}" name="costs" dataDxfId="92">
+    <tableColumn id="4" xr3:uid="{8431E0DC-20C5-440B-87E0-6DD54B935E4A}" name="costs" dataDxfId="88">
       <calculatedColumnFormula>D3/SQRT(SUMSQ(Table16[costs]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6D47332D-68D1-4898-B854-823010191086}" name="defect_rates" dataDxfId="91">
+    <tableColumn id="5" xr3:uid="{6D47332D-68D1-4898-B854-823010191086}" name="defect_rates" dataDxfId="87">
       <calculatedColumnFormula>E3/SQRT(SUMSQ(Table16[defect_rates]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B053840B-F30B-445F-9FD1-6E8C69D7472B}" name="lead_times" dataDxfId="90">
+    <tableColumn id="6" xr3:uid="{B053840B-F30B-445F-9FD1-6E8C69D7472B}" name="lead_times" dataDxfId="86">
       <calculatedColumnFormula>F3/SQRT(SUMSQ(Table16[lead_times]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D9ED9FFF-594F-485E-8FEC-505FDF836BFE}" name="manufacturing_lead_time" dataDxfId="89">
+    <tableColumn id="7" xr3:uid="{D9ED9FFF-594F-485E-8FEC-505FDF836BFE}" name="manufacturing_lead_time" dataDxfId="85">
       <calculatedColumnFormula>G3/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0186B6BB-DA09-4CD3-90C0-A847089D8E5E}" name="shipping_times" dataDxfId="88">
+    <tableColumn id="8" xr3:uid="{0186B6BB-DA09-4CD3-90C0-A847089D8E5E}" name="shipping_times" dataDxfId="84">
       <calculatedColumnFormula>H3/SQRT(SUMSQ(Table16[shipping_times]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{54280F80-624F-4222-A36A-60F4077E8743}" name="availability" dataDxfId="87">
+    <tableColumn id="9" xr3:uid="{54280F80-624F-4222-A36A-60F4077E8743}" name="availability" dataDxfId="83">
       <calculatedColumnFormula>I3/SQRT(SUMSQ(Table16[availability]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C266BA6D-4BD5-4FF4-9983-5F9260597337}" name="stock_levels" dataDxfId="86">
+    <tableColumn id="10" xr3:uid="{C266BA6D-4BD5-4FF4-9983-5F9260597337}" name="stock_levels" dataDxfId="82">
       <calculatedColumnFormula>J3/SQRT(SUMSQ(Table16[stock_levels]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7286E7BF-F833-43F4-A9B5-5BBF22571D56}" name="inspection_results" dataDxfId="85">
+    <tableColumn id="11" xr3:uid="{7286E7BF-F833-43F4-A9B5-5BBF22571D56}" name="inspection_results" dataDxfId="81">
       <calculatedColumnFormula>K3/SQRT(SUMSQ(Table16[inspection_results]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F28B008C-4512-4256-8BAF-EEE3071CC458}" name="production_volumes" dataDxfId="84">
+    <tableColumn id="12" xr3:uid="{F28B008C-4512-4256-8BAF-EEE3071CC458}" name="production_volumes" dataDxfId="80">
       <calculatedColumnFormula>L3/SQRT(SUMSQ(Table16[production_volumes]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E2BB8519-DAA2-4D86-AC16-F528BCFD6B0E}" name="order_quantities" dataDxfId="83">
+    <tableColumn id="13" xr3:uid="{E2BB8519-DAA2-4D86-AC16-F528BCFD6B0E}" name="order_quantities" dataDxfId="79">
       <calculatedColumnFormula>M3/SQRT(SUMSQ(Table16[order_quantities]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{43099701-05F1-4C05-9410-23B579DC076B}" name="revenue_generated" dataDxfId="82">
+    <tableColumn id="14" xr3:uid="{43099701-05F1-4C05-9410-23B579DC076B}" name="revenue_generated" dataDxfId="78">
       <calculatedColumnFormula>N3/SQRT(SUMSQ(Table16[revenue_generated]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{829A8997-2867-4B54-92BE-E9F10B9D9C93}" name="number_of_products_sold" dataDxfId="81">
+    <tableColumn id="15" xr3:uid="{829A8997-2867-4B54-92BE-E9F10B9D9C93}" name="number_of_products_sold" dataDxfId="77">
       <calculatedColumnFormula>O3/SQRT(SUMSQ(Table16[number_of_products_sold]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1934,74 +1939,74 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D1CAD41-A138-4B30-AD74-CF03F5E7C8EE}" name="Table16" displayName="Table16" ref="A2:O7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D1CAD41-A138-4B30-AD74-CF03F5E7C8EE}" name="Table16" displayName="Table16" ref="A2:O7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A2:O7" xr:uid="{0D1CAD41-A138-4B30-AD74-CF03F5E7C8EE}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1DED719D-28D3-4CB8-8A2D-07561E07BB1A}" name="supplier_name" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{F4C4B888-9E70-4321-AC9C-7C9E2E062DA2}" name="manufacturing_costs" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{D84DEDD0-F6D3-43AB-A755-6A7EDA23060E}" name="shipping_costs" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{A8F3DAC4-AE3E-4A68-98E9-D3FC665C497C}" name="costs" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{2759489F-2C0B-4FD2-B54F-FCDC7354317E}" name="defect_rates" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{56966151-33F3-4664-9F9A-D66C6243B65C}" name="lead_times" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{3D266A9A-8B32-4EDA-9E58-87F130CC136B}" name="manufacturing_lead_time" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{45DD4073-DCF1-4CED-8BC9-0A6ED751421F}" name="shipping_times" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{3DF85720-E107-4C69-80DB-5D68DED5C928}" name="availability" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{0CDE291E-E9DA-45E0-A65F-184BECCDE62D}" name="stock_levels" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{92227FF1-0398-42FB-81D4-D74165478E4A}" name="inspection_results" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{CCB5D7CA-6446-48ED-87B3-37BD2268E2A9}" name="production_volumes" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{B4ED4912-7FEC-4581-A37A-6BEBB087565B}" name="order_quantities" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{6705FED8-0FAF-43B7-A0F8-9D9A6F18591D}" name="revenue_generated" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{D966105C-7981-4938-B550-57045B09084B}" name="number_of_products_sold" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{1DED719D-28D3-4CB8-8A2D-07561E07BB1A}" name="supplier_name" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{F4C4B888-9E70-4321-AC9C-7C9E2E062DA2}" name="manufacturing_costs" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{D84DEDD0-F6D3-43AB-A755-6A7EDA23060E}" name="shipping_costs" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{A8F3DAC4-AE3E-4A68-98E9-D3FC665C497C}" name="costs" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{2759489F-2C0B-4FD2-B54F-FCDC7354317E}" name="defect_rates" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{56966151-33F3-4664-9F9A-D66C6243B65C}" name="lead_times" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{3D266A9A-8B32-4EDA-9E58-87F130CC136B}" name="manufacturing_lead_time" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{45DD4073-DCF1-4CED-8BC9-0A6ED751421F}" name="shipping_times" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{3DF85720-E107-4C69-80DB-5D68DED5C928}" name="availability" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{0CDE291E-E9DA-45E0-A65F-184BECCDE62D}" name="stock_levels" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{92227FF1-0398-42FB-81D4-D74165478E4A}" name="inspection_results" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{CCB5D7CA-6446-48ED-87B3-37BD2268E2A9}" name="production_volumes" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{B4ED4912-7FEC-4581-A37A-6BEBB087565B}" name="order_quantities" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{6705FED8-0FAF-43B7-A0F8-9D9A6F18591D}" name="revenue_generated" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{D966105C-7981-4938-B550-57045B09084B}" name="number_of_products_sold" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}" name="Table7" displayName="Table7" ref="A20:O24" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}" name="Table7" displayName="Table7" ref="A20:O24" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A20:O24" xr:uid="{7DD7D491-03B7-4827-B158-7D5EE1C3AA4C}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{4F845712-8154-4EDC-AD12-38F0C77906CC}" name="supplier_name" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{EF0A916A-9213-4B49-8757-D5735325E1FE}" name="manufacturing_costs" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{4F845712-8154-4EDC-AD12-38F0C77906CC}" name="supplier_name" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{EF0A916A-9213-4B49-8757-D5735325E1FE}" name="manufacturing_costs" dataDxfId="56">
       <calculatedColumnFormula>B12/SUM(Table14[manufacturing_costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CEE44804-95A5-446A-A8C9-C78F1159BD94}" name="shipping_costs" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{CEE44804-95A5-446A-A8C9-C78F1159BD94}" name="shipping_costs" dataDxfId="55">
       <calculatedColumnFormula>C12/SUM(Table14[shipping_costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DDC3CA24-4023-4E47-B1EF-ADB1056F0BCF}" name="costs" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{DDC3CA24-4023-4E47-B1EF-ADB1056F0BCF}" name="costs" dataDxfId="54">
       <calculatedColumnFormula>D12/SUM(Table14[costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{390C05F0-85A8-4788-BC91-CBD4841D157A}" name="defect_rates" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{390C05F0-85A8-4788-BC91-CBD4841D157A}" name="defect_rates" dataDxfId="53">
       <calculatedColumnFormula>E12/SUM(Table14[defect_rates])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E11D9F7C-57CB-48D0-9E8D-008D7D7446E8}" name="lead_times" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{E11D9F7C-57CB-48D0-9E8D-008D7D7446E8}" name="lead_times" dataDxfId="52">
       <calculatedColumnFormula>F12/SUM(Table14[lead_times])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0D54CD9E-F384-4D62-8D0E-7EB2FC96D8B6}" name="manufacturing_lead_time" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{0D54CD9E-F384-4D62-8D0E-7EB2FC96D8B6}" name="manufacturing_lead_time" dataDxfId="51">
       <calculatedColumnFormula>G12/SUM(Table14[manufacturing_lead_time])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AD74D6C8-FB92-4A5C-A09B-A07115092B92}" name="shipping_times" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{AD74D6C8-FB92-4A5C-A09B-A07115092B92}" name="shipping_times" dataDxfId="50">
       <calculatedColumnFormula>H12/SUM(Table14[shipping_times])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{442C2486-7C04-44BC-A78A-9D5748007714}" name="availability" dataDxfId="53">
+    <tableColumn id="9" xr3:uid="{442C2486-7C04-44BC-A78A-9D5748007714}" name="availability" dataDxfId="49">
       <calculatedColumnFormula>I12/SUM(Table14[availability])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3D6FD2AF-867C-4E06-9273-F956F3C54AE5}" name="stock_levels" dataDxfId="52">
+    <tableColumn id="10" xr3:uid="{3D6FD2AF-867C-4E06-9273-F956F3C54AE5}" name="stock_levels" dataDxfId="48">
       <calculatedColumnFormula>J12/SUM(Table14[stock_levels])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{34531D84-B1E1-49AB-BC1A-E3355834674F}" name="inspection_results" dataDxfId="51">
+    <tableColumn id="11" xr3:uid="{34531D84-B1E1-49AB-BC1A-E3355834674F}" name="inspection_results" dataDxfId="47">
       <calculatedColumnFormula>K12/SUM(Table14[inspection_results])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7BE0AF8A-78D2-41AF-A297-620AE0DABB0D}" name="production_volumes" dataDxfId="50">
+    <tableColumn id="12" xr3:uid="{7BE0AF8A-78D2-41AF-A297-620AE0DABB0D}" name="production_volumes" dataDxfId="46">
       <calculatedColumnFormula>L12/SUM(Table14[production_volumes])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BE66E21C-73BE-4536-87E4-CD84A79C57BA}" name="order_quantities" dataDxfId="49">
+    <tableColumn id="13" xr3:uid="{BE66E21C-73BE-4536-87E4-CD84A79C57BA}" name="order_quantities" dataDxfId="45">
       <calculatedColumnFormula>M12/SUM(Table14[order_quantities])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{50182055-85AD-4A65-8917-26456ED4819E}" name="revenue_generated" dataDxfId="48">
+    <tableColumn id="14" xr3:uid="{50182055-85AD-4A65-8917-26456ED4819E}" name="revenue_generated" dataDxfId="44">
       <calculatedColumnFormula>N12/SUM(Table14[revenue_generated])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{35972DB8-D653-4F97-BBFC-10D848675A5D}" name="number_of_products_sold" dataDxfId="47">
+    <tableColumn id="15" xr3:uid="{35972DB8-D653-4F97-BBFC-10D848675A5D}" name="number_of_products_sold" dataDxfId="43">
       <calculatedColumnFormula>O12/SUM(Table14[number_of_products_sold])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2010,50 +2015,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}" name="Table79" displayName="Table79" ref="A33:O38" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}" name="Table79" displayName="Table79" ref="A33:O38" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A33:O38" xr:uid="{89582DD4-8D4C-4E59-B432-ABA191443C1D}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{7161A442-103B-457A-B9C9-75329CD64014}" name="supplier_name" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{93933CE0-32A1-4103-8AE5-D524ED4B8E6C}" name="manufacturing_costs" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{7161A442-103B-457A-B9C9-75329CD64014}" name="supplier_name" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{93933CE0-32A1-4103-8AE5-D524ED4B8E6C}" name="manufacturing_costs" dataDxfId="39">
       <calculatedColumnFormula>B12*$B$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2B762177-7C86-4E5F-964A-B1922709554C}" name="shipping_costs" dataDxfId="42">
+    <tableColumn id="3" xr3:uid="{2B762177-7C86-4E5F-964A-B1922709554C}" name="shipping_costs" dataDxfId="38">
       <calculatedColumnFormula>C12*$C$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{25F78D64-8361-46F2-9B56-791919FE22D2}" name="costs" dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{25F78D64-8361-46F2-9B56-791919FE22D2}" name="costs" dataDxfId="37">
       <calculatedColumnFormula>D12*$D$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A2FD80AF-1160-48CD-A8DC-DADCB6A635DC}" name="defect_rates" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{A2FD80AF-1160-48CD-A8DC-DADCB6A635DC}" name="defect_rates" dataDxfId="36">
       <calculatedColumnFormula>E12*$E$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4D6216B9-29DB-44D6-9C94-E57652C2FFCC}" name="lead_times" dataDxfId="39">
+    <tableColumn id="6" xr3:uid="{4D6216B9-29DB-44D6-9C94-E57652C2FFCC}" name="lead_times" dataDxfId="35">
       <calculatedColumnFormula>F12*$F$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{26B63A24-BFE9-470C-8FED-BB9479B7F20C}" name="manufacturing_lead_time" dataDxfId="38">
+    <tableColumn id="7" xr3:uid="{26B63A24-BFE9-470C-8FED-BB9479B7F20C}" name="manufacturing_lead_time" dataDxfId="34">
       <calculatedColumnFormula>G12*$G$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8A2471E4-C631-404D-8595-A8C295078A9F}" name="shipping_times" dataDxfId="37">
+    <tableColumn id="8" xr3:uid="{8A2471E4-C631-404D-8595-A8C295078A9F}" name="shipping_times" dataDxfId="33">
       <calculatedColumnFormula>H12*$H$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDC3517A-2178-409F-9476-6CD07688F302}" name="availability" dataDxfId="36">
+    <tableColumn id="9" xr3:uid="{CDC3517A-2178-409F-9476-6CD07688F302}" name="availability" dataDxfId="32">
       <calculatedColumnFormula>I12*$I$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E71202E5-5170-46A6-922C-75BD674A432C}" name="stock_levels" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{E71202E5-5170-46A6-922C-75BD674A432C}" name="stock_levels" dataDxfId="31">
       <calculatedColumnFormula>J12*$J$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{352F5122-8420-4714-8671-A39A8EAF2963}" name="inspection_results" dataDxfId="34">
+    <tableColumn id="11" xr3:uid="{352F5122-8420-4714-8671-A39A8EAF2963}" name="inspection_results" dataDxfId="30">
       <calculatedColumnFormula>K12*$K$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4F638847-7720-44BC-A0C6-5093F540FDF5}" name="production_volumes" dataDxfId="33">
+    <tableColumn id="12" xr3:uid="{4F638847-7720-44BC-A0C6-5093F540FDF5}" name="production_volumes" dataDxfId="29">
       <calculatedColumnFormula>L12*$L$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6883D8AE-C17B-41F0-9E52-E72DE86D4B10}" name="order_quantities" dataDxfId="32">
+    <tableColumn id="13" xr3:uid="{6883D8AE-C17B-41F0-9E52-E72DE86D4B10}" name="order_quantities" dataDxfId="28">
       <calculatedColumnFormula>M12*$M$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{45CA209C-C13B-4A10-82B6-86B6CDD709C1}" name="revenue_generated" dataDxfId="31">
+    <tableColumn id="14" xr3:uid="{45CA209C-C13B-4A10-82B6-86B6CDD709C1}" name="revenue_generated" dataDxfId="27">
       <calculatedColumnFormula>N12*$N$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C2F4FE38-BBCD-43AD-B20D-1D52D66FD321}" name="number_of_products_sold" dataDxfId="30">
+    <tableColumn id="15" xr3:uid="{C2F4FE38-BBCD-43AD-B20D-1D52D66FD321}" name="number_of_products_sold" dataDxfId="26">
       <calculatedColumnFormula>O12*$O$29</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2062,50 +2067,50 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}" name="Table4" displayName="Table4" ref="A43:O45" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
   <autoFilter ref="A43:O45" xr:uid="{20E1DE21-2024-4F73-B19B-3F384311587B}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="   " dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{ABD60A6F-AAD7-4E9B-84BC-16409E0459EA}" name="manufacturing_costs" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{0245840F-3682-45A8-AE91-875A03268144}" name="   " dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{ABD60A6F-AAD7-4E9B-84BC-16409E0459EA}" name="manufacturing_costs" dataDxfId="22">
       <calculatedColumnFormula>MAX(Table79[manufacturing_costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E94844B5-C583-4CCD-ADE6-2A6746741FEB}" name="shipping_costs" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{E94844B5-C583-4CCD-ADE6-2A6746741FEB}" name="shipping_costs" dataDxfId="21">
       <calculatedColumnFormula>MAX(Table79[shipping_costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{939EAD32-5FA1-429B-9E0C-DAE57050476C}" name="costs" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{939EAD32-5FA1-429B-9E0C-DAE57050476C}" name="costs" dataDxfId="20">
       <calculatedColumnFormula>MAX(Table79[costs])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{029A651F-EDAB-418C-9286-212A7D5C9CF4}" name="defect_rates" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{029A651F-EDAB-418C-9286-212A7D5C9CF4}" name="defect_rates" dataDxfId="19">
       <calculatedColumnFormula>MIN(Table79[defect_rates])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{162F4633-2A02-482F-84FF-DE32221504F5}" name="lead_times" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{162F4633-2A02-482F-84FF-DE32221504F5}" name="lead_times" dataDxfId="18">
       <calculatedColumnFormula>MAX(Table79[lead_times])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DBD0F88C-DB77-4A59-997E-52850E2B5652}" name="manufacturing_lead_time" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{DBD0F88C-DB77-4A59-997E-52850E2B5652}" name="manufacturing_lead_time" dataDxfId="17">
       <calculatedColumnFormula>MAX(Table79[manufacturing_lead_time])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A1E7C368-9C89-4E57-B948-18BB3ECA15D3}" name="shipping_times" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{A1E7C368-9C89-4E57-B948-18BB3ECA15D3}" name="shipping_times" dataDxfId="16">
       <calculatedColumnFormula>MAX(Table79[shipping_times])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{548ECC83-F2B3-45BF-9328-C7B8AD88A52A}" name="availability" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{548ECC83-F2B3-45BF-9328-C7B8AD88A52A}" name="availability" dataDxfId="15">
       <calculatedColumnFormula>MIN(Table79[availability])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{595069E0-77B5-44CF-B35B-17B3B8E4594C}" name="stock_levels" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{595069E0-77B5-44CF-B35B-17B3B8E4594C}" name="stock_levels" dataDxfId="14">
       <calculatedColumnFormula>MIN(Table79[stock_levels])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3724752C-FBAA-4F21-9AA0-C820E07EAC05}" name="inspection_results" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{3724752C-FBAA-4F21-9AA0-C820E07EAC05}" name="inspection_results" dataDxfId="13">
       <calculatedColumnFormula>MIN(Table79[inspection_results])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{04AA1198-734E-4B54-B7B7-1D1A73815BA7}" name="production_volumes" dataDxfId="13">
+    <tableColumn id="12" xr3:uid="{04AA1198-734E-4B54-B7B7-1D1A73815BA7}" name="production_volumes" dataDxfId="12">
       <calculatedColumnFormula>MIN(Table79[production_volumes])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3C66D84C-D89E-4E44-93AB-061F7D8139FE}" name="order_quantities" dataDxfId="12">
+    <tableColumn id="13" xr3:uid="{3C66D84C-D89E-4E44-93AB-061F7D8139FE}" name="order_quantities" dataDxfId="11">
       <calculatedColumnFormula>MIN(Table79[order_quantities])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5180452C-489C-41A1-9D75-9EBD27FA8C6C}" name="revenue_generated" dataDxfId="11">
+    <tableColumn id="14" xr3:uid="{5180452C-489C-41A1-9D75-9EBD27FA8C6C}" name="revenue_generated" dataDxfId="10">
       <calculatedColumnFormula>MIN(Table79[revenue_generated])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{BCCD70C8-AFC3-44BE-8442-CC12659FF984}" name="number_of_products_sold" dataDxfId="10">
+    <tableColumn id="15" xr3:uid="{BCCD70C8-AFC3-44BE-8442-CC12659FF984}" name="number_of_products_sold" dataDxfId="9">
       <calculatedColumnFormula>MIN(Table79[number_of_products_sold])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2114,23 +2119,23 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}" name="Table9" displayName="Table9" ref="A48:E53" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
   <autoFilter ref="A48:E53" xr:uid="{E38C7E96-58B6-4B36-B9FE-DC1894A719F4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:E53">
     <sortCondition descending="1" ref="D48:D53"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{38B91389-FD35-4773-A58E-17009CB1A9C0}" name="supplier_name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2AF81854-9495-433C-B223-41D7996276EB}" name="D⁺" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{38B91389-FD35-4773-A58E-17009CB1A9C0}" name="supplier_name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2AF81854-9495-433C-B223-41D7996276EB}" name="D⁺" dataDxfId="5">
       <calculatedColumnFormula array="1">SQRT(SUMPRODUCT((B34:O34 - $B$44:$O$44)^2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2245C506-6C90-416C-94CB-B4D7FC5B77EE}" name="D⁻" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{2245C506-6C90-416C-94CB-B4D7FC5B77EE}" name="D⁻" dataDxfId="4">
       <calculatedColumnFormula array="1">SQRT(SUMPRODUCT((B34:O34 - $B$45:$O$45)^2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5697A1F7-EEFF-4E14-95E0-81518BC7D856}" name="Cᵢ = D⁻ / (D⁺ + D⁻)" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{5697A1F7-EEFF-4E14-95E0-81518BC7D856}" name="Cᵢ = D⁻ / (D⁺ + D⁻)" dataDxfId="3">
       <calculatedColumnFormula>C49 / (B49 + C49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{491CF47D-FAD8-4ED6-869D-445F5C75F3C0}" name="Ranking" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{491CF47D-FAD8-4ED6-869D-445F5C75F3C0}" name="Ranking" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2438,26 +2443,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2923,1922 +2928,1920 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="23.6640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="18" style="5" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="5"/>
-    <col min="24" max="24" width="23.88671875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="42.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="8"/>
+    <col min="18" max="18" width="23.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="18" style="8" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="8"/>
+    <col min="24" max="24" width="23.88671875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>45.254027200000003</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>5.5123018290000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>574.85113869999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>1.803629712</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>16.777777780000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>12.592592590000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <v>6.0740740740000003</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="8">
         <v>46.407407409999998</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <v>42.296296300000002</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="8">
         <v>1.259259259</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="8">
         <v>13545</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="8">
         <v>1458</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="8">
         <v>157528.995</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="8">
         <v>11080</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="8">
         <v>41.622514189999997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>5.7391780609999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>515.02724079999996</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>2.3627501450000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>16.227272729999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="8">
         <v>15.59090909</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="8">
         <v>5.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="8">
         <v>39.68181818</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="8">
         <v>46.454545449999998</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="8">
         <v>0.86363636399999999</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="8">
         <v>14105</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="8">
         <v>1022</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="8">
         <v>125467.4186</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="8">
         <v>11068</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>43.634121309999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>4.7887706249999997</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>468.80010149999998</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>2.4657860309999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>14.33333333</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <v>14.93333333</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="8">
         <v>5.2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <v>48.933333330000004</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="8">
         <v>43.6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="8">
         <v>0.93333333299999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="8">
         <v>7997</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="8">
         <v>632</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="8">
         <v>97795.979640000005</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="8">
         <v>8083</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>62.709726879999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>5.7595729750000002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>521.81041760000005</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>2.337397401</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>15.33333333</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <v>5.5555555559999998</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="8">
         <v>57.944444439999998</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <v>58.944444439999998</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="8">
         <v>0.33333333300000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="8">
         <v>11756</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="8">
         <v>842</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="8">
         <v>86468.961800000005</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="8">
         <v>7206</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>44.768243009999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>5.7898315309999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>536.02272960000005</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>2.6654083439999998</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>14.722222220000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>16.333333329999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>6.2222222220000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="8">
         <v>52.055555560000002</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="8">
         <v>49.888888889999997</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="8">
         <v>0.77777777800000003</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="8">
         <v>9381</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="8">
         <v>968</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="8">
         <v>110343.46369999999</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="8">
         <v>8662</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:15" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <f>B3/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.41979323316248768</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <f>C3/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.44571487356465167</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <f>D3/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.49021920685082465</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <f>E3/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.34404130956222467</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="8">
         <f>F3/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.47341116707577791</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="8">
         <f>G3/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.37518134316013807</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="8">
         <f>H3/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.47464623391007721</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="8">
         <f>I3/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.42032341858369571</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="8">
         <f>J3/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.38918249801980159</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="8">
         <f>K3/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.63612241753961563</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="8">
         <f>L3/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.5222856363925239</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="8">
         <f>M3/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.6384147135069187</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="8">
         <f>N3/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.59636681175226103</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="8">
         <f>O3/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.52968985099601296</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <f>B4/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.38610596415983989</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <f>C4/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46405968018041155</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <f>D4/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.43920282747027056</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <f>E4/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.45069320417922693</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="8">
         <f>F4/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.45787780850952742</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="8">
         <f>G4/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.46451262293031953</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="8">
         <f>H4/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.42978637644210999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="8">
         <f>I4/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.35940808599103441</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="8">
         <f>J4/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.42744395193310125</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="8">
         <f>K4/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.43627112353263503</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="8">
         <f>L4/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.54387884099789963</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="8">
         <f>M4/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.44750331769826535</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="8">
         <f>N4/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.47498941010363416</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="8">
         <f>O4/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.52911617967724467</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="8">
         <f>B5/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.40476638200564613</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <f>C5/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.38721143360163285</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <f>D5/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.39978143637086977</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <f>E5/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.47034723899329972</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="8">
         <f>F5/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.4044373545065183</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="8">
         <f>G5/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.44492093399866411</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="8">
         <f>H5/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.40634348318163127</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="8">
         <f>I5/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.44320135719387516</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="8">
         <f>J5/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.40117831578703383</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="8">
         <f>K5/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.47147896822275193</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="8">
         <f>L5/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.30835867362355218</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="8">
         <f>M5/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.27673394988777272</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="8">
         <f>N5/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.37023201081233226</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="8">
         <f>O5/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.38641543913364373</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <f>B6/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.58171881325275199</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <f>C6/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46570877647391429</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <f>D6/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.44498735728497152</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <f>E6/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.44585718313304235</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="8">
         <f>F6/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.47968151359602901</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="8">
         <f>G6/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.45683845901914566</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="8">
         <f>H6/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.43412765300655842</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="8">
         <f>I6/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.52481722927934227</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <f>J6/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.5423677281064585</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="8">
         <f>K6/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.16838534568559224</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="8">
         <f>L6/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.45330305953713634</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="8">
         <f>M6/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.3686866864011149</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="8">
         <f>N6/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.32735065099725957</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="8">
         <f>O6/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.34448962692033114</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="8">
         <f>B7/SQRT(SUMSQ(Table16[manufacturing_costs]))</f>
         <v>0.41528691784964145</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <f>C7/SQRT(SUMSQ(Table16[shipping_costs]))</f>
         <v>0.46815542922990738</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <f>D7/SQRT(SUMSQ(Table16[costs]))</f>
         <v>0.45710727468117318</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <f>E7/SQRT(SUMSQ(Table16[defect_rates]))</f>
         <v>0.50842507810042137</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="8">
         <f>F7/SQRT(SUMSQ(Table16[lead_times]))</f>
         <v>0.41541046105804064</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="8">
         <f>G7/SQRT(SUMSQ(Table16[manufacturing_lead_time]))</f>
         <v>0.48663227157034938</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="8">
         <f>H7/SQRT(SUMSQ(Table16[shipping_times]))</f>
         <v>0.48622297131108255</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="8">
         <f>I7/SQRT(SUMSQ(Table16[availability]))</f>
         <v>0.47148009963034282</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="8">
         <f>J7/SQRT(SUMSQ(Table16[stock_levels]))</f>
         <v>0.45904450507744637</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="8">
         <f>K7/SQRT(SUMSQ(Table16[inspection_results]))</f>
         <v>0.39289914043820462</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="8">
         <f>L7/SQRT(SUMSQ(Table16[production_volumes]))</f>
         <v>0.36172473643398062</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="8">
         <f>M7/SQRT(SUMSQ(Table16[order_quantities]))</f>
         <v>0.42385832830912024</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="8">
         <f>N7/SQRT(SUMSQ(Table16[revenue_generated]))</f>
         <v>0.41773376161303094</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="8">
         <f>O7/SQRT(SUMSQ(Table16[number_of_products_sold]))</f>
         <v>0.41409508026421155</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:15" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <f>B12/SUM(Table14[manufacturing_costs])</f>
         <v>0.19015205351409512</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <f>C12/SUM(Table14[shipping_costs])</f>
         <v>0.19979596790189239</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="9">
         <f>D12/SUM(Table14[costs])</f>
         <v>0.2197013506473359</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <f>E12/SUM(Table14[defect_rates])</f>
         <v>0.15501797244476362</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <f>F12/SUM(Table14[lead_times])</f>
         <v>0.21221413060338995</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="9">
         <f>G12/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.16838730881535624</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="9">
         <f>H12/SUM(Table14[shipping_times])</f>
         <v>0.21273835775995467</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="9">
         <f>I12/SUM(Table14[availability])</f>
         <v>0.18940054995161504</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="9">
         <f>J12/SUM(Table14[stock_levels])</f>
         <v>0.17536928484619876</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="9">
         <f>K12/SUM(Table14[inspection_results])</f>
         <v>0.30217338608186112</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="9">
         <f>L12/SUM(Table14[production_volumes])</f>
         <v>0.23853550295857986</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="9">
         <f>M12/SUM(Table14[order_quantities])</f>
         <v>0.2962210483543275</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="9">
         <f>N12/SUM(Table14[revenue_generated])</f>
         <v>0.27272797921533493</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="9">
         <f>O12/SUM(Table14[number_of_products_sold])</f>
         <v>0.24035228529903038</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <f>B13/SUM(Table14[manufacturing_costs])</f>
         <v>0.1748928666761411</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
         <f>C13/SUM(Table14[shipping_costs])</f>
         <v>0.20801920345258385</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="9">
         <f>D13/SUM(Table14[costs])</f>
         <v>0.19683735980730466</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <f>E13/SUM(Table14[defect_rates])</f>
         <v>0.20307313326820559</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="9">
         <f>F13/SUM(Table14[lead_times])</f>
         <v>0.20525105407976429</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="9">
         <f>G13/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.20848059721512635</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="9">
         <f>H13/SUM(Table14[shipping_times])</f>
         <v>0.19263198858377154</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="9">
         <f>I13/SUM(Table14[availability])</f>
         <v>0.16195169275395632</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="9">
         <f>J13/SUM(Table14[stock_levels])</f>
         <v>0.19261025494144124</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="9">
         <f>K13/SUM(Table14[inspection_results])</f>
         <v>0.20723923416735165</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="9">
         <f>L13/SUM(Table14[production_volumes])</f>
         <v>0.2483974358974359</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="9">
         <f>M13/SUM(Table14[order_quantities])</f>
         <v>0.20763917106867125</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="9">
         <f>N13/SUM(Table14[revenue_generated])</f>
         <v>0.21722017290939058</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="9">
         <f>O13/SUM(Table14[number_of_products_sold])</f>
         <v>0.24009197596477147</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <f>B14/SUM(Table14[manufacturing_costs])</f>
         <v>0.18334540114431269</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <f>C14/SUM(Table14[shipping_costs])</f>
         <v>0.17357123970397614</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <f>D14/SUM(Table14[costs])</f>
         <v>0.17916989034079153</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <f>E14/SUM(Table14[defect_rates])</f>
         <v>0.21192883908769908</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <f>F14/SUM(Table14[lead_times])</f>
         <v>0.18129551548241699</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="9">
         <f>G14/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.19968753797992619</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="9">
         <f>H14/SUM(Table14[shipping_times])</f>
         <v>0.18212478920647493</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="9">
         <f>I14/SUM(Table14[availability])</f>
         <v>0.19970950244616764</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="9">
         <f>J14/SUM(Table14[stock_levels])</f>
         <v>0.18077471287466526</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="9">
         <f>K14/SUM(Table14[inspection_results])</f>
         <v>0.22396380376797315</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="9">
         <f>L14/SUM(Table14[production_volumes])</f>
         <v>0.14083192448577064</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="9">
         <f>M14/SUM(Table14[order_quantities])</f>
         <v>0.12840308817553839</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="9">
         <f>N14/SUM(Table14[revenue_generated])</f>
         <v>0.16931295665665383</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="9">
         <f>O14/SUM(Table14[number_of_products_sold])</f>
         <v>0.17534002906787569</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="9">
         <f>B15/SUM(Table14[manufacturing_costs])</f>
         <v>0.26349883268599017</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <f>C15/SUM(Table14[shipping_costs])</f>
         <v>0.20875842668623706</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="9">
         <f>D15/SUM(Table14[costs])</f>
         <v>0.19942981027719478</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <f>E15/SUM(Table14[defect_rates])</f>
         <v>0.20089412116575295</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <f>F15/SUM(Table14[lead_times])</f>
         <v>0.21502491376170965</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="9">
         <f>G15/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.20503631131986813</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="9">
         <f>H15/SUM(Table14[shipping_times])</f>
         <v>0.19457776626180007</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="9">
         <f>I15/SUM(Table14[availability])</f>
         <v>0.23648616150041468</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="9">
         <f>J15/SUM(Table14[stock_levels])</f>
         <v>0.24439598667884541</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="9">
         <f>K15/SUM(Table14[inspection_results])</f>
         <v>7.9987072722855851E-2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="9">
         <f>L15/SUM(Table14[production_volumes])</f>
         <v>0.20703014933784164</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="9">
         <f>M15/SUM(Table14[order_quantities])</f>
         <v>0.17106867127184069</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="9">
         <f>N15/SUM(Table14[revenue_generated])</f>
         <v>0.14970263230944872</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="9">
         <f>O15/SUM(Table14[number_of_products_sold])</f>
         <v>0.15631575522245603</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="9">
         <f>B16/SUM(Table14[manufacturing_costs])</f>
         <v>0.18811084597946093</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="9">
         <f>C16/SUM(Table14[shipping_costs])</f>
         <v>0.20985516225531062</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="9">
         <f>D16/SUM(Table14[costs])</f>
         <v>0.20486158892737308</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <f>E16/SUM(Table14[defect_rates])</f>
         <v>0.22908593403357894</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <f>F16/SUM(Table14[lead_times])</f>
         <v>0.18621438607271917</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="9">
         <f>G16/SUM(Table14[manufacturing_lead_time])</f>
         <v>0.21840824466972297</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="9">
         <f>H16/SUM(Table14[shipping_times])</f>
         <v>0.21792709818799882</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="9">
         <f>I16/SUM(Table14[availability])</f>
         <v>0.21245209334784626</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="9">
         <f>J16/SUM(Table14[stock_levels])</f>
         <v>0.20684976065884925</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="9">
         <f>K16/SUM(Table14[inspection_results])</f>
         <v>0.18663650325995823</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="9">
         <f>L16/SUM(Table14[production_volumes])</f>
         <v>0.16520498732037195</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="9">
         <f>M16/SUM(Table14[order_quantities])</f>
         <v>0.19666802112962209</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="9">
         <f>N16/SUM(Table14[revenue_generated])</f>
         <v>0.19103625890917197</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="9">
         <f>O16/SUM(Table14[number_of_products_sold])</f>
         <v>0.18789995444586652</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="9" cm="1">
+      <c r="B27" s="13" cm="1">
         <f t="array" ref="B27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(B21:B25, LN(B21:B25))</f>
         <v>0.99246747941383806</v>
       </c>
-      <c r="C27" s="9" cm="1">
+      <c r="C27" s="13" cm="1">
         <f t="array" ref="C27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(C21:C25, LN(C21:C25))</f>
         <v>0.99849925324789324</v>
       </c>
-      <c r="D27" s="9" cm="1">
+      <c r="D27" s="13" cm="1">
         <f t="array" ref="D27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(D21:D25, LN(D21:D25))</f>
         <v>0.99866473270691924</v>
       </c>
-      <c r="E27" s="9" cm="1">
+      <c r="E27" s="13" cm="1">
         <f t="array" ref="E27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(E21:E25, LN(E21:E25))</f>
         <v>0.99510338663359355</v>
       </c>
-      <c r="F27" s="9" cm="1">
+      <c r="F27" s="13" cm="1">
         <f t="array" ref="F27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(F21:F25, LN(F21:F25))</f>
         <v>0.99852472958669147</v>
       </c>
-      <c r="G27" s="9" cm="1">
+      <c r="G27" s="13" cm="1">
         <f t="array" ref="G27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(G21:G25, LN(G21:G25))</f>
         <v>0.99769839398785143</v>
       </c>
-      <c r="H27" s="9" cm="1">
+      <c r="H27" s="13" cm="1">
         <f t="array" ref="H27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(H21:H25, LN(H21:H25))</f>
         <v>0.99862492013012349</v>
       </c>
-      <c r="I27" s="9" cm="1">
+      <c r="I27" s="13" cm="1">
         <f t="array" ref="I27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(I21:I25, LN(I21:I25))</f>
         <v>0.99522704988672073</v>
       </c>
-      <c r="J27" s="9" cm="1">
+      <c r="J27" s="13" cm="1">
         <f t="array" ref="J27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(J21:J25, LN(J21:J25))</f>
         <v>0.99540763846788216</v>
       </c>
-      <c r="K27" s="9" cm="1">
+      <c r="K27" s="13" cm="1">
         <f t="array" ref="K27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(K21:K25, LN(K21:K25))</f>
         <v>0.95575788115496996</v>
       </c>
-      <c r="L27" s="9" cm="1">
+      <c r="L27" s="13" cm="1">
         <f t="array" ref="L27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(L21:L25, LN(L21:L25))</f>
         <v>0.98630528778140192</v>
       </c>
-      <c r="M27" s="9" cm="1">
+      <c r="M27" s="13" cm="1">
         <f t="array" ref="M27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(M21:M25, LN(M21:M25))</f>
         <v>0.97688595060643746</v>
       </c>
-      <c r="N27" s="9" cm="1">
+      <c r="N27" s="13" cm="1">
         <f t="array" ref="N27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(N21:N25, LN(N21:N25))</f>
         <v>0.98620394901094111</v>
       </c>
-      <c r="O27" s="9" cm="1">
+      <c r="O27" s="13" cm="1">
         <f t="array" ref="O27" xml:space="preserve"> -1/LN(5) * SUMPRODUCT(O21:O25, LN(O21:O25))</f>
         <v>0.99085513714639883</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="13">
         <f>1-B27</f>
         <v>7.5325205861619393E-3</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="13">
         <f t="shared" ref="C28:O28" si="0">1-C27</f>
         <v>1.500746752106763E-3</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="13">
         <f t="shared" si="0"/>
         <v>1.3352672930807552E-3</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>4.8966133664064548E-3</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="13">
         <f t="shared" si="0"/>
         <v>1.475270413308527E-3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="13">
         <f t="shared" si="0"/>
         <v>2.3016060121485715E-3</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="13">
         <f t="shared" si="0"/>
         <v>1.3750798698765054E-3</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="13">
         <f t="shared" si="0"/>
         <v>4.7729501132792729E-3</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="13">
         <f t="shared" si="0"/>
         <v>4.592361532117839E-3</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="13">
         <f t="shared" si="0"/>
         <v>4.4242118845030043E-2</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="13">
         <f t="shared" si="0"/>
         <v>1.3694712218598082E-2</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="13">
         <f t="shared" si="0"/>
         <v>2.3114049393562541E-2</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="13">
         <f t="shared" si="0"/>
         <v>1.3796050989058894E-2</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="13">
         <f t="shared" si="0"/>
         <v>9.1448628536011656E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="13">
         <f t="shared" ref="B29:O29" si="1">B28 / SUM($B$28:$O$28)</f>
         <v>5.630771860092993E-2</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="13">
         <f t="shared" si="1"/>
         <v>1.1218505789964852E-2</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="13">
         <f t="shared" si="1"/>
         <v>9.9815001015650991E-3</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="13">
         <f t="shared" si="1"/>
         <v>3.6603567740616502E-2</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="13">
         <f t="shared" si="1"/>
         <v>1.1028062962809705E-2</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="13">
         <f t="shared" si="1"/>
         <v>1.7205154925212719E-2</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="13">
         <f t="shared" si="1"/>
         <v>1.0279110356372948E-2</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="13">
         <f t="shared" si="1"/>
         <v>3.5679150000404405E-2</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="13">
         <f t="shared" si="1"/>
         <v>3.4329199357154928E-2</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="13">
         <f t="shared" si="1"/>
         <v>0.33072233254979833</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="13">
         <f t="shared" si="1"/>
         <v>0.1023718412853946</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="13">
         <f t="shared" si="1"/>
         <v>0.17278404673353442</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="13">
         <f t="shared" si="1"/>
         <v>0.10312937721313631</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="13">
         <f t="shared" si="1"/>
         <v>6.8360432383105241E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="30" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:15" s="30" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="9">
         <f t="shared" ref="B34:B37" si="2">B12*$B$29</f>
         <v>2.3637599243487923E-2</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <f t="shared" ref="C34:C38" si="3">C12*$C$29</f>
         <v>5.0002548897584969E-3</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <f t="shared" ref="D34:D38" si="4">D12*$D$29</f>
         <v>4.8931230629706687E-3</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="9">
         <f t="shared" ref="E34:E38" si="5">E12*$E$29</f>
         <v>1.2593139380131303E-2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="9">
         <f t="shared" ref="F34:F38" si="6">F12*$F$29</f>
         <v>5.2208081578089035E-3</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="9">
         <f t="shared" ref="G34:G38" si="7">G12*$G$29</f>
         <v>6.4550531341195727E-3</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="9">
         <f t="shared" ref="H34:H38" si="8">H12*$H$29</f>
         <v>4.8789410185984912E-3</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="9">
         <f t="shared" ref="I34:I38" si="9">I12*$I$29</f>
         <v>1.4996782300330448E-2</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="9">
         <f t="shared" ref="J34:J38" si="10">J12*$J$29</f>
         <v>1.3360323560837321E-2</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="9">
         <f t="shared" ref="K34:K38" si="11">K12*$K$29</f>
         <v>0.21037988971591842</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="9">
         <f t="shared" ref="L34:L38" si="12">L12*$L$29</f>
         <v>5.3467342274416768E-2</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="9">
         <f t="shared" ref="M34:M38" si="13">M12*$M$29</f>
         <v>0.11030787769395543</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="9">
         <f t="shared" ref="N34:N38" si="14">N12*$N$29</f>
         <v>6.1502937886594382E-2</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="9">
         <f t="shared" ref="O34:O38" si="15">O12*$O$29</f>
         <v>3.6209827243030034E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="9">
         <f t="shared" si="2"/>
         <v>2.1740745980053003E-2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <f t="shared" si="3"/>
         <v>5.2060562089931844E-3</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="9">
         <f t="shared" si="4"/>
         <v>4.3839030670021839E-3</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="9">
         <f t="shared" si="5"/>
         <v>1.6496979229409837E-2</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="9">
         <f t="shared" si="6"/>
         <v>5.0495053015163936E-3</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="9">
         <f t="shared" si="7"/>
         <v>7.9920116422330656E-3</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="9">
         <f t="shared" si="8"/>
         <v>4.4178215931140949E-3</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="9">
         <f t="shared" si="9"/>
         <v>1.2823375011432362E-2</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="9">
         <f t="shared" si="10"/>
         <v>1.4673808639921581E-2</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="9">
         <f t="shared" si="11"/>
         <v>0.14428460359883427</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="9">
         <f t="shared" si="12"/>
         <v>5.5677878389121346E-2</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="9">
         <f t="shared" si="13"/>
         <v>7.7321434158588775E-2</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="9">
         <f t="shared" si="14"/>
         <v>4.8985362046822786E-2</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="9">
         <f t="shared" si="15"/>
         <v>3.6170610823633251E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="9">
         <f t="shared" si="2"/>
         <v>2.2791471537090432E-2</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="9">
         <f t="shared" si="3"/>
         <v>4.3439337098005095E-3</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="9">
         <f t="shared" si="4"/>
         <v>3.9904184477396777E-3</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <f t="shared" si="5"/>
         <v>1.7216387024103184E-2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="9">
         <f t="shared" si="6"/>
         <v>4.4601606100100732E-3</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="9">
         <f t="shared" si="7"/>
         <v>7.6549335989173593E-3</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="9">
         <f t="shared" si="8"/>
         <v>4.1768495062169632E-3</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="9">
         <f t="shared" si="9"/>
         <v>1.5813047703703082E-2</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="9">
         <f t="shared" si="10"/>
         <v>1.3772130380420739E-2</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="9">
         <f t="shared" si="11"/>
         <v>0.15592862411880076</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="9">
         <f t="shared" si="12"/>
         <v>3.1567245195165079E-2</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="9">
         <f t="shared" si="13"/>
         <v>4.7815211730164495E-2</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="9">
         <f t="shared" si="14"/>
         <v>3.8181796699442973E-2</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="9">
         <f t="shared" si="15"/>
         <v>2.6415526498683371E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="9">
         <f t="shared" si="2"/>
         <v>3.2755259241502868E-2</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="9">
         <f t="shared" si="3"/>
         <v>5.2245566053100547E-3</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="9">
         <f t="shared" si="4"/>
         <v>4.4416413519351283E-3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <f t="shared" si="5"/>
         <v>1.6319963605450773E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="9">
         <f t="shared" si="6"/>
         <v>5.2899579340328672E-3</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="9">
         <f t="shared" si="7"/>
         <v>7.8599764632198421E-3</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="9">
         <f t="shared" si="8"/>
         <v>4.4624460540075963E-3</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="9">
         <f t="shared" si="9"/>
         <v>1.8725032646254285E-2</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="9">
         <f t="shared" si="10"/>
         <v>1.8619049863053815E-2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="9">
         <f t="shared" si="11"/>
         <v>5.5688794292343184E-2</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="9">
         <f t="shared" si="12"/>
         <v>4.6405468865119502E-2</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="9">
         <f t="shared" si="13"/>
         <v>6.3703177653162191E-2</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="9">
         <f t="shared" si="14"/>
         <v>3.3759468767662115E-2</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="9">
         <f t="shared" si="15"/>
         <v>2.3549459847768447E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="9">
         <f>B16*$B$29</f>
         <v>2.3383858908925116E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="9">
         <f t="shared" si="3"/>
         <v>5.2520043934191967E-3</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="9">
         <f t="shared" si="4"/>
         <v>4.5626163086562761E-3</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="9">
         <f t="shared" si="5"/>
         <v>1.8610171787277009E-2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="9">
         <f t="shared" si="6"/>
         <v>4.5811727199578812E-3</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="9">
         <f t="shared" si="7"/>
         <v>8.3725836239760508E-3</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="9">
         <f t="shared" si="8"/>
         <v>4.9979395799101753E-3</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="9">
         <f t="shared" si="9"/>
         <v>1.6822009196916614E-2</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="9">
         <f t="shared" si="10"/>
         <v>1.5758630328610173E-2</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="9">
         <f t="shared" si="11"/>
         <v>0.12994052018253383</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="9">
         <f t="shared" si="12"/>
         <v>3.7030427307220656E-2</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="9">
         <f t="shared" si="13"/>
         <v>7.3235957206960814E-2</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="9">
         <f t="shared" si="14"/>
         <v>4.308062267605263E-2</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="9">
         <f t="shared" si="15"/>
         <v>2.8307718734578172E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:15" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:15" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+    <row r="39" spans="1:15" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:15" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:15" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="42" spans="1:15" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="13">
         <f>MIN(Table79[manufacturing_costs])</f>
         <v>2.1740745980053003E-2</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="13">
         <f>MIN(Table79[shipping_costs])</f>
         <v>4.3439337098005095E-3</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="13">
         <f>MIN(Table79[costs])</f>
         <v>3.9904184477396777E-3</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="13">
         <f>MAX(Table79[defect_rates])</f>
         <v>1.8610171787277009E-2</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="13">
         <f>MIN(Table79[lead_times])</f>
         <v>4.4601606100100732E-3</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="13">
         <f>MIN(Table79[manufacturing_lead_time])</f>
         <v>6.4550531341195727E-3</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="13">
         <f>MIN(Table79[shipping_times])</f>
         <v>4.1768495062169632E-3</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="13">
         <f>MAX(Table79[availability])</f>
         <v>1.8725032646254285E-2</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="13">
         <f>MAX(Table79[stock_levels])</f>
         <v>1.8619049863053815E-2</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="13">
         <f>MAX(Table79[inspection_results])</f>
         <v>0.21037988971591842</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="13">
         <f>MAX(Table79[production_volumes])</f>
         <v>5.5677878389121346E-2</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="13">
         <f>MAX(Table79[order_quantities])</f>
         <v>0.11030787769395543</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="13">
         <f>MAX(Table79[revenue_generated])</f>
         <v>6.1502937886594382E-2</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="20">
         <f>MAX(Table79[number_of_products_sold])</f>
         <v>3.6209827243030034E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="22">
         <f>MAX(Table79[manufacturing_costs])</f>
         <v>3.2755259241502868E-2</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="22">
         <f>MAX(Table79[shipping_costs])</f>
         <v>5.2520043934191967E-3</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="22">
         <f>MAX(Table79[costs])</f>
         <v>4.8931230629706687E-3</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="22">
         <f>MIN(Table79[defect_rates])</f>
         <v>1.2593139380131303E-2</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="22">
         <f>MAX(Table79[lead_times])</f>
         <v>5.2899579340328672E-3</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="22">
         <f>MAX(Table79[manufacturing_lead_time])</f>
         <v>8.3725836239760508E-3</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="22">
         <f>MAX(Table79[shipping_times])</f>
         <v>4.9979395799101753E-3</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="22">
         <f>MIN(Table79[availability])</f>
         <v>1.2823375011432362E-2</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="22">
         <f>MIN(Table79[stock_levels])</f>
         <v>1.3360323560837321E-2</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="22">
         <f>MIN(Table79[inspection_results])</f>
         <v>5.5688794292343184E-2</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="22">
         <f>MIN(Table79[production_volumes])</f>
         <v>3.1567245195165079E-2</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="22">
         <f>MIN(Table79[order_quantities])</f>
         <v>4.7815211730164495E-2</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="22">
         <f>MIN(Table79[revenue_generated])</f>
         <v>3.3759468767662115E-2</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45" s="23">
         <f>MIN(Table79[number_of_products_sold])</f>
         <v>2.3549459847768447E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:15" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="46" spans="1:15" s="24" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:15" s="24" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="19" cm="1">
+      <c r="B49" s="27" cm="1">
         <f t="array" ref="B49">SQRT(SUMPRODUCT((B34:O34 - $B$44:$O$44)^2))</f>
         <v>9.4106537746808366E-3</v>
       </c>
-      <c r="C49" s="19" cm="1">
+      <c r="C49" s="27" cm="1">
         <f t="array" ref="C49">SQRT(SUMPRODUCT((B34:O34 - $B$45:$O$45)^2))</f>
         <v>0.17127720864857798</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="27">
         <f>C49 / (B49 + C49)</f>
         <v>0.94791762076062136</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="28">
         <v>1</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="19" cm="1">
+      <c r="B50" s="27" cm="1">
         <f t="array" ref="B50">SQRT(SUMPRODUCT((B35:O35 - $B$44:$O$44)^2))</f>
         <v>7.5312079657210748E-2</v>
       </c>
-      <c r="C50" s="19" cm="1">
+      <c r="C50" s="27" cm="1">
         <f t="array" ref="C50">SQRT(SUMPRODUCT((B35:O35 - $B$45:$O$45)^2))</f>
         <v>9.9153234018936665E-2</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="27">
         <f>C50 / (B50 + C50)</f>
         <v>0.56832634481711719</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="28">
         <v>2</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="19" cm="1">
+      <c r="B51" s="27" cm="1">
         <f t="array" ref="B51">SQRT(SUMPRODUCT((B36:O36 - $B$44:$O$44)^2))</f>
         <v>9.0154638642800364E-2</v>
       </c>
-      <c r="C51" s="19" cm="1">
+      <c r="C51" s="27" cm="1">
         <f t="array" ref="C51">SQRT(SUMPRODUCT((B36:O36 - $B$45:$O$45)^2))</f>
         <v>0.10103994883181538</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="27">
         <f>C51 / (B51 + C51)</f>
         <v>0.52846657515987527</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="28">
         <v>3</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="19" cm="1">
+      <c r="B52" s="27" cm="1">
         <f t="array" ref="B52">SQRT(SUMPRODUCT((B37:O37 - $B$44:$O$44)^2))</f>
         <v>0.16506841982099046</v>
       </c>
-      <c r="C52" s="19" cm="1">
+      <c r="C52" s="27" cm="1">
         <f t="array" ref="C52">SQRT(SUMPRODUCT((B37:O37 - $B$45:$O$45)^2))</f>
         <v>2.3446266981134736E-2</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="27">
         <f>C52 / (B52 + C52)</f>
         <v>0.12437368875001849</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="21" cm="1">
+      <c r="B53" s="31" cm="1">
         <f t="array" ref="B53">SQRT(SUMPRODUCT((B38:O38 - $B$44:$O$44)^2))</f>
         <v>9.2813754287858138E-2</v>
       </c>
-      <c r="C53" s="21" cm="1">
+      <c r="C53" s="31" cm="1">
         <f t="array" ref="C53">SQRT(SUMPRODUCT((B38:O38 - $B$45:$O$45)^2))</f>
         <v>8.0282530976255623E-2</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="31">
         <f>C53 / (B53 + C53)</f>
         <v>0.46380273761368679</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="32">
         <v>5</v>
       </c>
     </row>
